--- a/Data/Way Better Romance - 2877731755/Way Better Romance - 2877731755.xlsx
+++ b/Data/Way Better Romance - 2877731755/Way Better Romance - 2877731755.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\SteamLibrary\steamapps\common\RimWorld\Mods\MOD KOREAN TRANSLATE\trans\Way Better Romance - 2877731755\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SteamLibrary\steamapps\common\RimWorld\Mods\MOD KOREAN TRANSLATE\trans\Way Better Romance - 2877731755\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25C5F6F8-2629-4CDA-8D7C-669DF2218B88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5531C7F8-BD99-4D39-A7AD-699B8B44A82F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,746 +19,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Lammergeier</author>
-  </authors>
-  <commentList>
-    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-05-27에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-05-27에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-05-27에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-05-27에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-05-27에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-05-27에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-05-27에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-05-27에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-05-27에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-05-27에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-05-27에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-05-27에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-05-27에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-05-27에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000F000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-05-27에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000010000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-05-27에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000011000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-05-27에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E19" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000012000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-05-27에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000013000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-05-27에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E21" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000014000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-05-27에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000016000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-05-27에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E23" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000017000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-05-27에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E24" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000018000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-05-27에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E25" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000019000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-05-27에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E26" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001A000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-05-27에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E27" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001B000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-05-27에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E28" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001C000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-05-27에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E29" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001D000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-05-27에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E30" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001E000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-05-27에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E31" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001F000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-05-27에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E32" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000020000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-05-27에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E33" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000021000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-05-27에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E34" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000022000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-05-27에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E35" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000023000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-05-27에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E36" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000024000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-05-27에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E37" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000025000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-05-27에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E38" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000026000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-05-27에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E39" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000027000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-05-27에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E40" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000028000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-05-27에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E41" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000029000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-05-27에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E42" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00002A000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-05-27에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E43" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00002B000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-05-27에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E44" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00002C000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-05-27에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E45" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00002D000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-05-27에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E46" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00002E000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-05-27에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E47" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00002F000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-05-27에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E48" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000030000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-05-27에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E49" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000031000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-05-27에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E50" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000032000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-05-27에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E51" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000033000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-05-27에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E52" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000034000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-05-27에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E53" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000035000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-05-27에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E54" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000036000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-05-27에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E55" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000037000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-05-27에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E56" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000038000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-05-27에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E57" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000039000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-05-27에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1026" uniqueCount="808">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1036" uniqueCount="816">
   <si>
     <t>Class+Node [(Identifier (Key)]</t>
   </si>
@@ -787,6 +49,9 @@
     <t>TriedHookupWith.label</t>
   </si>
   <si>
+    <t>hookup attempt</t>
+  </si>
+  <si>
     <t>관계 시도</t>
   </si>
   <si>
@@ -796,6 +61,9 @@
     <t>AskedForDate.label</t>
   </si>
   <si>
+    <t>date attempt</t>
+  </si>
+  <si>
     <t>데이트 시도</t>
   </si>
   <si>
@@ -805,6 +73,9 @@
     <t>AskedForHangout.label</t>
   </si>
   <si>
+    <t>hangout attempt</t>
+  </si>
+  <si>
     <t>어울리기 시도</t>
   </si>
   <si>
@@ -817,6 +88,9 @@
     <t>Lewd.label</t>
   </si>
   <si>
+    <t>romantic fun</t>
+  </si>
+  <si>
     <t>로맨틱한 재미</t>
   </si>
   <si>
@@ -829,6 +103,9 @@
     <t>AsexualRating.label</t>
   </si>
   <si>
+    <t>sex repulsion</t>
+  </si>
+  <si>
     <t>성적 거부감</t>
   </si>
   <si>
@@ -838,6 +115,9 @@
     <t>AsexualRating.description</t>
   </si>
   <si>
+    <t>How an asexual person feels about sexual activities.\n\nA pawn with repulsion above 80% will never agree to lovin' and will only accept marriage proposals from another asexual pawn. Between 50%-80%, they will only agree to lovin' with existing partners. Pawns with repulsion below 50% can accept hookups from anyone, but their chance of accepting is effected by their repulsion.\n\nIf an asexual pawn does any lovin' their thoughts about it will be effected by their repulsion, and can be negative. Asexual pawns will still never initiate lovin' no matter their repulsion.</t>
+  </si>
+  <si>
     <t>무성애자가 성적 활동에 대해 느끼는 감정.\n\n 거부감이 80% 이상인 림은 절대 사랑에 동의하지 않으며 다른 무성애자의 청혼만 받아들입니다. 50%-80% 사이에서 림은 기존 파트너와의 사랑에만 동의할 것입니다. 거부감이 50% 미만인 림은 모든 사람의 관계를 받아들일 수 있지만, 수락할 가능성은 그들의 거부감 영향을 받습니다.\n\n 무성애 림이 사랑을 한다면 그것에 대한 그들의 생각은 거부감의 영향을 받을 것이며 부정적일 수 있습니다. 무성애자는 그들의 거부감에 관계없이 사랑을 시작하지 않을 것입니다.</t>
   </si>
   <si>
@@ -850,6 +130,9 @@
     <t>RebuffedMyHookupAttempt.stages.0.label</t>
   </si>
   <si>
+    <t>turned me down</t>
+  </si>
+  <si>
     <t>나를 거절했다</t>
   </si>
   <si>
@@ -859,6 +142,9 @@
     <t>RebuffedMyHookupAttemptMood.stages.0.label</t>
   </si>
   <si>
+    <t>turned down by {0}</t>
+  </si>
+  <si>
     <t>{0}에 의해 거절당했다.</t>
   </si>
   <si>
@@ -868,6 +154,9 @@
     <t>RebuffedMyHookupAttemptMood.stages.0.description</t>
   </si>
   <si>
+    <t>What, am I not pretty enough for a tumble??</t>
+  </si>
+  <si>
     <t>뭐야, 내가 넘어질 만큼 예쁘지 않아??</t>
   </si>
   <si>
@@ -877,6 +166,9 @@
     <t>FailedHookupAttemptOnMe.stages.0.label</t>
   </si>
   <si>
+    <t>had to turn them down</t>
+  </si>
+  <si>
     <t>그 사람에게 거절해야 했다.</t>
   </si>
   <si>
@@ -886,6 +178,9 @@
     <t>RebuffedMyDateAttempt.stages.0.label</t>
   </si>
   <si>
+    <t>turned down my date</t>
+  </si>
+  <si>
     <t>내 데이트를 거절했어.</t>
   </si>
   <si>
@@ -895,6 +190,9 @@
     <t>RebuffedMyDateAttemptMood.stages.0.label</t>
   </si>
   <si>
+    <t>{0} didn't want to have a date with me</t>
+  </si>
+  <si>
     <t>{0}에 의해 거절됨</t>
   </si>
   <si>
@@ -904,6 +202,9 @@
     <t>RebuffedMyDateAttemptMood.stages.0.description</t>
   </si>
   <si>
+    <t>What, can't even give me a chance??</t>
+  </si>
+  <si>
     <t>뭐야, 나한테 기회조차 줄 수 없어??</t>
   </si>
   <si>
@@ -913,6 +214,9 @@
     <t>FailedDateAttemptOnMe.stages.0.label</t>
   </si>
   <si>
+    <t>had to turn down for a date</t>
+  </si>
+  <si>
     <t>데이트를 거절해야 했다.</t>
   </si>
   <si>
@@ -922,6 +226,9 @@
     <t>RebuffedMyHangoutAttempt.stages.0.label</t>
   </si>
   <si>
+    <t>didn't want to hang out with me</t>
+  </si>
+  <si>
     <t>나와 어울리고 싶지 않았다.</t>
   </si>
   <si>
@@ -931,12 +238,30 @@
     <t>RebuffedMyHangoutAttemptMood.stages.0.label</t>
   </si>
   <si>
+    <t>{0} didn't want to hang out with me</t>
+  </si>
+  <si>
     <t>ThoughtDef+RebuffedMyHangoutAttemptMood.stages.0.description</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>{0}(은)는 나와 어울리고 싶지 않았다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>RebuffedMyHangoutAttemptMood.stages.0.description</t>
   </si>
   <si>
+    <t>I just wanted some quality time</t>
+  </si>
+  <si>
     <t>난 그저 좋은 시간을 원했을 뿐이야</t>
   </si>
   <si>
@@ -946,12 +271,30 @@
     <t>FailedHangoutAttemptOnMe.stages.0.label</t>
   </si>
   <si>
+    <t>{0} wanted to hang out, how awkward</t>
+  </si>
+  <si>
     <t>ThoughtDef+GotSomeLovinAsexual.stages.0.label</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>{0}(이)가 어울리고 싶어했는데, 얼마나 어색한지.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>GotSomeLovinAsexual.stages.0.label</t>
   </si>
   <si>
+    <t>got some lovin'</t>
+  </si>
+  <si>
     <t>약간의 사랑을 얻었다.</t>
   </si>
   <si>
@@ -961,12 +304,12 @@
     <t>GotSomeLovinAsexual.stages.0.description</t>
   </si>
   <si>
+    <t>Had sex while asexual.</t>
+  </si>
+  <si>
     <t>무성애 상태에서 성관계를 가짐.</t>
   </si>
   <si>
-    <t>hookup attempt</t>
-  </si>
-  <si>
     <t>TraitDef+Straight.degreeDatas.0.label</t>
   </si>
   <si>
@@ -976,6 +319,9 @@
     <t>Straight.degreeDatas.0.label</t>
   </si>
   <si>
+    <t>straight</t>
+  </si>
+  <si>
     <t>이성애</t>
   </si>
   <si>
@@ -985,12 +331,21 @@
     <t>Straight.degreeDatas.0.description</t>
   </si>
   <si>
+    <t>{PAWN_nameDef} is romantically and sexually attracted to people of the opposite gender.</t>
+  </si>
+  <si>
+    <t>{PAWN_nameDef}(은)는 이성에게 로맨틱하고 성적으로 끌립니다.</t>
+  </si>
+  <si>
     <t>TraitDef+HeteroAce.degreeDatas.0.label</t>
   </si>
   <si>
     <t>HeteroAce.degreeDatas.0.label</t>
   </si>
   <si>
+    <t>asexual (hetero)</t>
+  </si>
+  <si>
     <t>무성애 (이성애)</t>
   </si>
   <si>
@@ -1000,12 +355,21 @@
     <t>HeteroAce.degreeDatas.0.description</t>
   </si>
   <si>
+    <t>{PAWN_nameDef} is uninterested in sexual engagements, but is romantically attracted to people of the opposite gender.</t>
+  </si>
+  <si>
+    <t>{PAWN_nameDef}(은)는 성적 관계에는 관심이 없지만 이성에게 로맨틱한 매력을 느낍니다.</t>
+  </si>
+  <si>
     <t>TraitDef+HomoAce.degreeDatas.0.label</t>
   </si>
   <si>
     <t>HomoAce.degreeDatas.0.label</t>
   </si>
   <si>
+    <t>asexual (homo)</t>
+  </si>
+  <si>
     <t>무성애 (동성애)</t>
   </si>
   <si>
@@ -1015,12 +379,21 @@
     <t>HomoAce.degreeDatas.0.description</t>
   </si>
   <si>
+    <t>{PAWN_nameDef} is uninterested in sexual engagements, but is romantically attracted to people of {PAWN_possessive} own gender.</t>
+  </si>
+  <si>
+    <t>{PAWN_nameDef}(은)는 성적 관계에는 관심이 없지만, {PAWN_possessive} 성별의 로맨틱한 매력을 느낍니다.</t>
+  </si>
+  <si>
     <t>TraitDef+BiAce.degreeDatas.0.label</t>
   </si>
   <si>
     <t>BiAce.degreeDatas.0.label</t>
   </si>
   <si>
+    <t>asexual (bi)</t>
+  </si>
+  <si>
     <t>무성애 (양성애)</t>
   </si>
   <si>
@@ -1030,12 +403,21 @@
     <t>BiAce.degreeDatas.0.description</t>
   </si>
   <si>
+    <t>{PAWN_nameDef} is uninterested in sexual engagements, but is romantically attracted to people regardless of gender.</t>
+  </si>
+  <si>
+    <t>{PAWN_nameDef}(은)는 성적 관계에는 관심이 없지만 성별에 관계없이 사람들에게 로맨틱한 매력을 느낍니다.</t>
+  </si>
+  <si>
     <t>TraitDef+Faithful.degreeDatas.0.label</t>
   </si>
   <si>
     <t>Faithful.degreeDatas.0.label</t>
   </si>
   <si>
+    <t>faithful</t>
+  </si>
+  <si>
     <t>순애보</t>
   </si>
   <si>
@@ -1045,12 +427,21 @@
     <t>Faithful.degreeDatas.0.description</t>
   </si>
   <si>
+    <t>{PAWN_nameDef} will never cheat on a partner, no matter how bad the relationship gets.</t>
+  </si>
+  <si>
+    <t>{PAWN_nameDef}(은)는 관계가 아무리 나빠져도 바람 피우지 않습니다.</t>
+  </si>
+  <si>
     <t>TraitDef+Philanderer.degreeDatas.0.label</t>
   </si>
   <si>
     <t>Philanderer.degreeDatas.0.label</t>
   </si>
   <si>
+    <t>philanderer</t>
+  </si>
+  <si>
     <t>바람둥이</t>
   </si>
   <si>
@@ -1060,6 +451,12 @@
     <t>Philanderer.degreeDatas.0.description</t>
   </si>
   <si>
+    <t>{PAWN_nameDef} just cannot be trusted to stay faithful to a partner.</t>
+  </si>
+  <si>
+    <t>{PAWN_nameDef}(은)는 파트너에게만 사랑을 할 수 없습니다.</t>
+  </si>
+  <si>
     <t>Keyed+WBR.WayBetterRomance</t>
   </si>
   <si>
@@ -1075,9 +472,27 @@
     <t>Keyed+WBR.OrentationHeading</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>- Way Better Romance -</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>WBR.OrentationHeading</t>
   </si>
   <si>
+    <t>Sexual Orientation Chances</t>
+  </si>
+  <si>
+    <t>성향 확률</t>
+  </si>
+  <si>
     <t>Keyed+WBR.OrentationHeadingTip</t>
   </si>
   <si>
@@ -1087,6 +502,9 @@
     <t>Each pawn in the game will be either straight, bisexual, gay, or asexual. The sliders below allow you to determine the relative commonality of each of those orientations. Obviously, the total must, and will always, be 100%. (If a pawn has a 60% chance of being bisexual, after all, he or she can't also have a 70% chance of being straight!)</t>
   </si>
   <si>
+    <t>게임 내 각 캐릭터는 이성애자, 양성애자, 동성애자, 무성애자 중 하나가 됩니다. 아래 슬라이더를 사용하여 각 성향의 상대적 비율을 설정할 수 있습니다. 총합은 항상 100%가 되어야 합니다. (예를 들어, 한 캐릭터가 양성애자일 확률이 60%라면, 이성애자일 확률이 70%가 될 수는 없습니다!)</t>
+  </si>
+  <si>
     <t>Keyed+WBR.StraightChance</t>
   </si>
   <si>
@@ -1096,6 +514,9 @@
     <t>Chance of a Pawn Being Straight:</t>
   </si>
   <si>
+    <t>이성애자일 확률:</t>
+  </si>
+  <si>
     <t>Keyed+WBR.StraightChanceTip</t>
   </si>
   <si>
@@ -1105,6 +526,9 @@
     <t>Romantically and/or sexually interested only in opposite-gender partners</t>
   </si>
   <si>
+    <t>이성에게만 로맨틱하거나 성적으로 관심을 가집니다.</t>
+  </si>
+  <si>
     <t>Keyed+WBR.BisexualChance</t>
   </si>
   <si>
@@ -1114,6 +538,9 @@
     <t>Chance of a Pawn Being Bisexual:</t>
   </si>
   <si>
+    <t>양성애자일 확률:</t>
+  </si>
+  <si>
     <t>Keyed+WBR.BisexualChanceTip</t>
   </si>
   <si>
@@ -1123,6 +550,9 @@
     <t>Romantically and/or sexually interested in partners of either gender</t>
   </si>
   <si>
+    <t>양성에게 로맨틱하거나 성적으로 관심을 가집니다.</t>
+  </si>
+  <si>
     <t>Keyed+WBR.GayChance</t>
   </si>
   <si>
@@ -1132,6 +562,9 @@
     <t>Chance of a Pawn Being Gay:</t>
   </si>
   <si>
+    <t>동성애자일 확률:</t>
+  </si>
+  <si>
     <t>Keyed+WBR.GayChanceTip</t>
   </si>
   <si>
@@ -1141,6 +574,9 @@
     <t>Romantically and/or sexually interested only in same-gender partners</t>
   </si>
   <si>
+    <t>동성에게만 로맨틱하거나 성적으로 관심을 가집니다.</t>
+  </si>
+  <si>
     <t>Keyed+WBR.AsexualChance</t>
   </si>
   <si>
@@ -1150,6 +586,9 @@
     <t>Chance of a Pawn Being Asexual:</t>
   </si>
   <si>
+    <t>무성애자일 확률:</t>
+  </si>
+  <si>
     <t>Keyed+WBR.AsexualChanceTip</t>
   </si>
   <si>
@@ -1159,6 +598,9 @@
     <t>Uninterested in initiating sexual engagements. Asexual pawns have a rating for how sex repulsed they are and will agree to sex based on their rating. Their feelings about these encounters can be negative if the rating is low enough.</t>
   </si>
   <si>
+    <t>성적 관계를 시작하는 데 관심이 없습니다. 무성애 캐릭터는 성적 혐오 정도를 나타내는 등급이 있으며, 이 등급에 따라 성적 관계에 동의할 수 있습니다. 등급이 충분히 낮으면 이러한 관계에 대해 부정적인 감정을 가질 수 있습니다.</t>
+  </si>
+  <si>
     <t>Keyed+WBR.OtherHeading</t>
   </si>
   <si>
@@ -1168,6 +610,9 @@
     <t>Other Settings</t>
   </si>
   <si>
+    <t>기타 설정</t>
+  </si>
+  <si>
     <t>Keyed+WBR.AlienLoveChance</t>
   </si>
   <si>
@@ -1177,6 +622,9 @@
     <t>Modifier for Cross-Species Romance:</t>
   </si>
   <si>
+    <t>종 간 로맨스 수정자:</t>
+  </si>
+  <si>
     <t>Keyed+WBR.AlienLoveChanceTip</t>
   </si>
   <si>
@@ -1186,6 +634,9 @@
     <t>This slider determines how likely pawns are to be romantically interested in pawns of other species. (Obviously, the setting only matters if you're actually playing with alien races in your game.) If set to 100%, pawns will be just as likely to attempt to romance members of alien species as to romance members of their own species. If set to 0%, cross-species romances will never occur.</t>
   </si>
   <si>
+    <t>이 슬라이더는 캐릭터가 다른 종의 캐릭터에게 로맨틱하게 관심을 가질 가능성을 결정합니다. (이 설정은 게임에 외계 종족이 실제로 존재할 때만 의미가 있습니다.) 100%로 설정하면 캐릭터는 자신의 종의 구성원과 동일한 확률로 외계 종의 구성원과 로맨스를 시도할 것입니다. 0%로 설정하면 종 간 로맨스는 절대 발생하지 않습니다.</t>
+  </si>
+  <si>
     <t>Keyed+WBR.DateRate</t>
   </si>
   <si>
@@ -1195,18 +646,42 @@
     <t>Base Rate at Which Pawns Will Propose Dates and Hangouts:</t>
   </si>
   <si>
+    <t>데이트 및 만남 제안 기본 비율:</t>
+  </si>
+  <si>
     <t>Keyed+WBR.DateRateTip</t>
   </si>
   <si>
     <t>WBR.DateRateTip</t>
   </si>
   <si>
+    <t>Relative frequency for dates. Please note that since this is a recreation activity, the actual frequency will depend on the availability of other recreation activities. Bored pawns will propose dates/hangouts more often. Set to 0% to disable dates and hangouts entirely.</t>
+  </si>
+  <si>
+    <t>데이트의 상대적 빈도입니다. 이것은 여가 활동이기 때문에 실제 빈도는 다른 여가 활동의 가용성에 따라 달라집니다. 지루한 캐릭터는 더 자주 데이트/만남을 제안합니다. 0%로 설정하면 데이트와 만남이 완전히 비활성화됩니다.</t>
+  </si>
+  <si>
     <t>Keyed+WBR.HookupRate</t>
   </si>
   <si>
     <t>WBR.HookupRate</t>
   </si>
   <si>
+    <t>관계 제안 기본 비율:</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>Base Rate at Which Pawns Will Propose Hookups:</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>Keyed+WBR.HookupRateTip</t>
   </si>
   <si>
@@ -1216,6 +691,9 @@
     <t>Relative frequency for hookups. Please note that since this is a recreation activity, the actual frequency will depend on the availability of other recreation activities. Bored pawns will propose hookups more often. Set to 0% to disable hookups entirely.</t>
   </si>
   <si>
+    <t>관계의 상대적 빈도입니다. 이것은 여가 활동이기 때문에 실제 빈도는 다른 여가 활동의 가용성에 따라 달라집니다. 지루한 캐릭터는 더 자주 관계를 제안합니다. 0%로 설정하면 관계가 완전히 비활성화됩니다.</t>
+  </si>
+  <si>
     <t>Keyed+WBR.MinOpinionRomance</t>
   </si>
   <si>
@@ -1225,6 +703,9 @@
     <t>Minimum Opinion for Romance Attempts:</t>
   </si>
   <si>
+    <t>연애 시도 최소 호감도:</t>
+  </si>
+  <si>
     <t>Keyed+WBR.MinOpinionRomanceTip</t>
   </si>
   <si>
@@ -1234,6 +715,9 @@
     <t>A pawn will never consider a romance attempt if their opinion of the other person is lower than this setting.</t>
   </si>
   <si>
+    <t>캐릭터가 다른 사람에게 연애 시도를 고려하지 않으려면 이 설정보다 낮은 호감도를 가져야 합니다.</t>
+  </si>
+  <si>
     <t>Keyed+WBR.MinOpinionHookup</t>
   </si>
   <si>
@@ -1243,6 +727,9 @@
     <t>Minimum Opinion for Hookups:</t>
   </si>
   <si>
+    <t>관계 시도 최소 호감도:</t>
+  </si>
+  <si>
     <t>Keyed+WBR.MinOpinionHookupTip</t>
   </si>
   <si>
@@ -1252,6 +739,9 @@
     <t>A pawn will never consider a hookup if their opinion of the other person is lower than this setting.</t>
   </si>
   <si>
+    <t>캐릭터가 다른 사람과 관계를 고려하지 않으려면 이 설정보다 낮은 호감도를 가져야 합니다.</t>
+  </si>
+  <si>
     <t>Keyed+WBR.CheatChance</t>
   </si>
   <si>
@@ -1261,112 +751,16 @@
     <t>Modifier for Cheating:</t>
   </si>
   <si>
+    <t>바람 피우기 수정자:</t>
+  </si>
+  <si>
     <t>Keyed+WBR.CheatChanceTip</t>
   </si>
   <si>
     <t>WBR.CheatChanceTip</t>
   </si>
   <si>
-    <t>Cheating consideration is based on the initiator's ideoligion and their opinion of their most liked partner, so the actual chances will vary per pawn. This setting alters the chance at the very end of considerations. Setting to 0% will result in a pawn never deciding to cheat, but that will only matter if their ideo considers an interaction cheating. Partners with a different ideo may still feel cheated on.</t>
-  </si>
-  <si>
-    <t>date attempt</t>
-  </si>
-  <si>
-    <t>hangout attempt</t>
-  </si>
-  <si>
-    <t>romantic fun</t>
-  </si>
-  <si>
-    <t>sex repulsion</t>
-  </si>
-  <si>
-    <t>How an asexual person feels about sexual activities.\n\nA pawn with repulsion above 80% will never agree to lovin' and will only accept marriage proposals from another asexual pawn. Between 50%-80%, they will only agree to lovin' with existing partners. Pawns with repulsion below 50% can accept hookups from anyone, but their chance of accepting is effected by their repulsion.\n\nIf an asexual pawn does any lovin' their thoughts about it will be effected by their repulsion, and can be negative. Asexual pawns will still never initiate lovin' no matter their repulsion.</t>
-  </si>
-  <si>
-    <t>turned me down</t>
-  </si>
-  <si>
-    <t>turned down by {0}</t>
-  </si>
-  <si>
-    <t>What, am I not pretty enough for a tumble??</t>
-  </si>
-  <si>
-    <t>had to turn them down</t>
-  </si>
-  <si>
-    <t>turned down my date</t>
-  </si>
-  <si>
-    <t>{0} didn't want to have a date with me</t>
-  </si>
-  <si>
-    <t>What, can't even give me a chance??</t>
-  </si>
-  <si>
-    <t>had to turn down for a date</t>
-  </si>
-  <si>
-    <t>didn't want to hang out with me</t>
-  </si>
-  <si>
-    <t>{0} didn't want to hang out with me</t>
-  </si>
-  <si>
-    <t>I just wanted some quality time</t>
-  </si>
-  <si>
-    <t>{0} wanted to hang out, how awkward</t>
-  </si>
-  <si>
-    <t>got some lovin'</t>
-  </si>
-  <si>
-    <t>Had sex while asexual.</t>
-  </si>
-  <si>
-    <t>straight</t>
-  </si>
-  <si>
-    <t>{PAWN_nameDef} is romantically and sexually attracted to people of the opposite gender.</t>
-  </si>
-  <si>
-    <t>asexual (hetero)</t>
-  </si>
-  <si>
-    <t>{PAWN_nameDef} is uninterested in sexual engagements, but is romantically attracted to people of the opposite gender.</t>
-  </si>
-  <si>
-    <t>asexual (homo)</t>
-  </si>
-  <si>
-    <t>{PAWN_nameDef} is uninterested in sexual engagements, but is romantically attracted to people of {PAWN_possessive} own gender.</t>
-  </si>
-  <si>
-    <t>asexual (bi)</t>
-  </si>
-  <si>
-    <t>{PAWN_nameDef} is uninterested in sexual engagements, but is romantically attracted to people regardless of gender.</t>
-  </si>
-  <si>
-    <t>faithful</t>
-  </si>
-  <si>
-    <t>{PAWN_nameDef} will never cheat on a partner, no matter how bad the relationship gets.</t>
-  </si>
-  <si>
-    <t>philanderer</t>
-  </si>
-  <si>
-    <t>{PAWN_nameDef} just cannot be trusted to stay faithful to a partner.</t>
-  </si>
-  <si>
-    <t>Sexual Orientation Chances</t>
-  </si>
-  <si>
-    <t>Relative frequency for dates. Please note that since this is a recreation activity, the actual frequency will depend on the availability of other recreation activities. Bored pawns will propose dates/hangouts more often. Set to 0% to disable dates and hangouts entirely.</t>
+    <t>바람 피우기 고려는 발동자의 이데올로기와 가장 좋아하는 파트너에 대한 의견에 따라 달라지므로 실제 확률은 캐릭터마다 다릅니다. 이 설정은 고려의 맨 마지막 단계에서 확률을 변경합니다. 0%로 설정하면 캐릭터가 절대 바람을 피우지 않지만, 이는 그들의 이데올로기가 해당 상호작용을 바람으로 간주할 때만 중요합니다. 다른 이데올로기를 가진 파트너는 여전히 바람을 피운 것으로 느낄 수 있습니다.</t>
   </si>
   <si>
     <t>InteractionDef+TriedHookupWith.logRulesInitiator.rulesStrings.0</t>
@@ -1378,6 +772,9 @@
     <t>r_logentry-&gt;[INITIATOR_nameDef] tried to chat up [RECIPIENT_nameDef].</t>
   </si>
   <si>
+    <t>r_logentry-&gt;[INITIATOR_nameDef](이)가 [RECIPIENT_nameDef]에게 접근하려고 시도했습니다.</t>
+  </si>
+  <si>
     <t>InteractionDef+TriedHookupWith.logRulesRecipient.rulesStrings.0</t>
   </si>
   <si>
@@ -1387,6 +784,9 @@
     <t>r_logentry-&gt;[RECIPIENT_nameDef] was chatted up by [INITIATOR_nameDef].</t>
   </si>
   <si>
+    <t>r_logentry-&gt;[RECIPIENT_nameDef](은)는 [INITIATOR_nameDef]에게 접근당했습니다.</t>
+  </si>
+  <si>
     <t>RulePackDef+HookupSucceeded.rulePack.rulesStrings.0</t>
   </si>
   <si>
@@ -1399,6 +799,9 @@
     <t>sent-&gt; [RECIPIENT_nameDef] agreed to the hookup.</t>
   </si>
   <si>
+    <t>sent-&gt; [RECIPIENT_nameDef](이)가 관계에 동의했습니다.</t>
+  </si>
+  <si>
     <t>RulePackDef+HookupFailed.rulePack.rulesStrings.0</t>
   </si>
   <si>
@@ -1408,6 +811,9 @@
     <t>sent-&gt; [RECIPIENT_nameDef] did not agree to the hookup.</t>
   </si>
   <si>
+    <t>sent-&gt; [RECIPIENT_nameDef](이)가 관계에 동의하지 않았습니다.</t>
+  </si>
+  <si>
     <t>InteractionDef+AskedForDate.logRulesInitiator.rulesStrings.0</t>
   </si>
   <si>
@@ -1417,6 +823,9 @@
     <t>r_logentry-&gt;[INITIATOR_nameDef] asked [RECIPIENT_nameDef] out on a date.</t>
   </si>
   <si>
+    <t>r_logentry-&gt;[INITIATOR_nameDef](이)가 [RECIPIENT_nameDef]에게 데이트 신청을 했습니다.</t>
+  </si>
+  <si>
     <t>InteractionDef+AskedForDate.logRulesRecipient.rulesStrings.0</t>
   </si>
   <si>
@@ -1426,6 +835,9 @@
     <t>r_logentry-&gt;[RECIPIENT_nameDef] was asked out by [INITIATOR_nameDef].</t>
   </si>
   <si>
+    <t>r_logentry-&gt;[RECIPIENT_nameDef](은)는 [INITIATOR_nameDef]에게 데이트 신청을 받았습니다.</t>
+  </si>
+  <si>
     <t>RulePackDef+DateSucceeded.rulePack.rulesStrings.0</t>
   </si>
   <si>
@@ -1435,6 +847,9 @@
     <t>sent-&gt; [RECIPIENT_nameDef] agreed to the date.</t>
   </si>
   <si>
+    <t>sent-&gt; [RECIPIENT_nameDef](이)가 데이트에 동의했습니다.</t>
+  </si>
+  <si>
     <t>RulePackDef+DateFailed.rulePack.rulesStrings.0</t>
   </si>
   <si>
@@ -1444,6 +859,9 @@
     <t>sent-&gt; [RECIPIENT_nameDef] did not agree to the date.</t>
   </si>
   <si>
+    <t>sent-&gt; [RECIPIENT_nameDef](이)가 데이트에 동의하지 않았습니다.</t>
+  </si>
+  <si>
     <t>InteractionDef+AskedForHangout.logRulesInitiator.rulesStrings.0</t>
   </si>
   <si>
@@ -1453,6 +871,9 @@
     <t>r_logentry-&gt;[INITIATOR_nameDef] asked [RECIPIENT_nameDef] to hang out.</t>
   </si>
   <si>
+    <t>r_logentry-&gt;[INITIATOR_nameDef](이)가 [RECIPIENT_nameDef]에게 함께 시간을 보내자고 했습니다.</t>
+  </si>
+  <si>
     <t>InteractionDef+AskedForHangout.logRulesRecipient.rulesStrings.0</t>
   </si>
   <si>
@@ -1462,6 +883,9 @@
     <t>r_logentry-&gt;[RECIPIENT_nameDef] was asked to hang out by [INITIATOR_nameDef].</t>
   </si>
   <si>
+    <t>r_logentry-&gt;[RECIPIENT_nameDef](은)는 [INITIATOR_nameDef]에게 함께 시간을 보내자는 요청을 받았습니다.</t>
+  </si>
+  <si>
     <t>RulePackDef+HangoutSucceeded.rulePack.rulesStrings.0</t>
   </si>
   <si>
@@ -1471,6 +895,9 @@
     <t>sent-&gt; [RECIPIENT_nameDef] agreed to hang out.</t>
   </si>
   <si>
+    <t>sent-&gt; [RECIPIENT_nameDef](이)가 함께 시간을 보내는 것에 동의했습니다.</t>
+  </si>
+  <si>
     <t>RulePackDef+HangoutFailed.rulePack.rulesStrings.0</t>
   </si>
   <si>
@@ -1480,6 +907,9 @@
     <t>sent-&gt; [RECIPIENT_nameDef] did not agree to hang out.</t>
   </si>
   <si>
+    <t>sent-&gt; [RECIPIENT_nameDef](이)가 함께 시간을 보내는 것에 동의하지 않았습니다.</t>
+  </si>
+  <si>
     <t>JobDef+LeadHookup.reportString</t>
   </si>
   <si>
@@ -1492,6 +922,9 @@
     <t>attempting hookup.</t>
   </si>
   <si>
+    <t>관계 시도 중.</t>
+  </si>
+  <si>
     <t>JobDef+DoLovinCasual.reportString</t>
   </si>
   <si>
@@ -1501,6 +934,9 @@
     <t>lovin'.</t>
   </si>
   <si>
+    <t>애정 행위 중.</t>
+  </si>
+  <si>
     <t>JobDef+OrderedHookup.reportString</t>
   </si>
   <si>
@@ -1510,6 +946,9 @@
     <t>trying to hookup with TargetA.</t>
   </si>
   <si>
+    <t>TargetA와 관계를 시도 중.</t>
+  </si>
+  <si>
     <t>JobDef+ProposeDate.reportString</t>
   </si>
   <si>
@@ -1519,6 +958,9 @@
     <t>asking for a date.</t>
   </si>
   <si>
+    <t>데이트 신청 중.</t>
+  </si>
+  <si>
     <t>JobDef+JobDateLead.reportString</t>
   </si>
   <si>
@@ -1528,6 +970,9 @@
     <t>on a date.</t>
   </si>
   <si>
+    <t>데이트 중.</t>
+  </si>
+  <si>
     <t>JobDef+JobDateFollow.reportString</t>
   </si>
   <si>
@@ -1543,6 +988,9 @@
     <t>asking to hang out.</t>
   </si>
   <si>
+    <t>함께 시간을 보내자고 요청 중.</t>
+  </si>
+  <si>
     <t>JobDef+JobHangoutLead.reportString</t>
   </si>
   <si>
@@ -1552,6 +1000,9 @@
     <t>hanging out.</t>
   </si>
   <si>
+    <t>함께 시간을 보내는 중.</t>
+  </si>
+  <si>
     <t>JobDef+JobHangoutFollow.reportString</t>
   </si>
   <si>
@@ -1570,6 +1021,9 @@
     <t>Men's lovers</t>
   </si>
   <si>
+    <t>남성의 연인들</t>
+  </si>
+  <si>
     <t>IssueDef+LoverCount_Female.label</t>
   </si>
   <si>
@@ -1579,6 +1033,9 @@
     <t>Women's lovers</t>
   </si>
   <si>
+    <t>여성의 연인들</t>
+  </si>
+  <si>
     <t>HistoryEventDef+TookLover_LoverCount_OneOrFewer.label</t>
   </si>
   <si>
@@ -1591,6 +1048,9 @@
     <t>has one or fewer lovers</t>
   </si>
   <si>
+    <t>연인이 한 명 이하임</t>
+  </si>
+  <si>
     <t>PreceptDef+LoverCount_Male_None.label</t>
   </si>
   <si>
@@ -1603,6 +1063,9 @@
     <t>none</t>
   </si>
   <si>
+    <t>없음</t>
+  </si>
+  <si>
     <t>PreceptDef+LoverCount_Male_None.description</t>
   </si>
   <si>
@@ -1612,6 +1075,9 @@
     <t>Men may not have any lovers in addition to spouses.</t>
   </si>
   <si>
+    <t>남성은 배우자 외에 연인을 가질 수 없습니다.</t>
+  </si>
+  <si>
     <t>PreceptDef+LoverCount_Female_None.label</t>
   </si>
   <si>
@@ -1627,6 +1093,9 @@
     <t>Women not may have any lovers in addition to spouses.</t>
   </si>
   <si>
+    <t>여성은 배우자 외에 연인을 가질 수 없습니다.</t>
+  </si>
+  <si>
     <t>HistoryEventDef+TookLover_LoverCount_Two.label</t>
   </si>
   <si>
@@ -1636,6 +1105,9 @@
     <t>has two or more lovers</t>
   </si>
   <si>
+    <t>연인이 두 명 이상임</t>
+  </si>
+  <si>
     <t>HistoryEventDef+TookLover_LoverCount_Three.label</t>
   </si>
   <si>
@@ -1645,6 +1117,9 @@
     <t>has three or more lovers</t>
   </si>
   <si>
+    <t>연인이 세 명 이상임</t>
+  </si>
+  <si>
     <t>HistoryEventDef+TookLover_LoverCount_Four.label</t>
   </si>
   <si>
@@ -1654,6 +1129,9 @@
     <t>has four or more lovers</t>
   </si>
   <si>
+    <t>연인이 네 명 이상임</t>
+  </si>
+  <si>
     <t>HistoryEventDef+TookLover_LoverCount_FiveOrMore.label</t>
   </si>
   <si>
@@ -1663,6 +1141,9 @@
     <t>has five or more lovers</t>
   </si>
   <si>
+    <t>연인이 다섯 명 이상임</t>
+  </si>
+  <si>
     <t>PreceptDef+LoverCount_Male_MaxOne.label</t>
   </si>
   <si>
@@ -1672,6 +1153,9 @@
     <t>one only</t>
   </si>
   <si>
+    <t>한 명만</t>
+  </si>
+  <si>
     <t>PreceptDef+LoverCount_Male_MaxOne.description</t>
   </si>
   <si>
@@ -1681,6 +1165,9 @@
     <t>Men may have one lover, in addition to spouses.</t>
   </si>
   <si>
+    <t>남성은 배우자 외에 한 명의 연인을 가질 수 있습니다.</t>
+  </si>
+  <si>
     <t>PreceptDef+LoverCount_Female_MaxOne.label</t>
   </si>
   <si>
@@ -1696,6 +1183,9 @@
     <t>Women may have one lover, in addition to spouses.</t>
   </si>
   <si>
+    <t>여성은 배우자 외에 한 명의 연인을 가질 수 있습니다.</t>
+  </si>
+  <si>
     <t>PreceptDef+LoverCount_Male_MaxTwo.label</t>
   </si>
   <si>
@@ -1705,6 +1195,9 @@
     <t>two or fewer</t>
   </si>
   <si>
+    <t>두 명 이하</t>
+  </si>
+  <si>
     <t>PreceptDef+LoverCount_Male_MaxTwo.description</t>
   </si>
   <si>
@@ -1714,6 +1207,9 @@
     <t>Men may have up to two lovers, in addition to spouses.</t>
   </si>
   <si>
+    <t>남성은 배우자 외에 최대 두 명의 연인을 가질 수 있습니다.</t>
+  </si>
+  <si>
     <t>PreceptDef+LoverCount_Female_MaxTwo.label</t>
   </si>
   <si>
@@ -1729,6 +1225,9 @@
     <t>Women may have up to two lovers, in addition to spouses.</t>
   </si>
   <si>
+    <t>여성은 배우자 외에 최대 두 명의 연인을 가질 수 있습니다.</t>
+  </si>
+  <si>
     <t>PreceptDef+LoverCount_Male_MaxThree.label</t>
   </si>
   <si>
@@ -1738,6 +1237,9 @@
     <t>three or fewer</t>
   </si>
   <si>
+    <t>세 명 이하</t>
+  </si>
+  <si>
     <t>PreceptDef+LoverCount_Male_MaxThree.description</t>
   </si>
   <si>
@@ -1747,6 +1249,9 @@
     <t>Men may have up to three lovers, in addition to spouses.</t>
   </si>
   <si>
+    <t>남성은 배우자 외에 최대 세 명의 연인을 가질 수 있습니다.</t>
+  </si>
+  <si>
     <t>PreceptDef+LoverCount_Female_MaxThree.label</t>
   </si>
   <si>
@@ -1762,6 +1267,9 @@
     <t>Women may have up to three lovers, in addition to spouses.</t>
   </si>
   <si>
+    <t>여성은 배우자 외에 최대 세 명의 연인을 가질 수 있습니다.</t>
+  </si>
+  <si>
     <t>PreceptDef+LoverCount_Male_MaxFour.label</t>
   </si>
   <si>
@@ -1771,6 +1279,9 @@
     <t>four or fewer</t>
   </si>
   <si>
+    <t>네 명 이하</t>
+  </si>
+  <si>
     <t>PreceptDef+LoverCount_Male_MaxFour.description</t>
   </si>
   <si>
@@ -1780,6 +1291,9 @@
     <t>Men may have up to four lovers, in addition to spouses.</t>
   </si>
   <si>
+    <t>남성은 배우자 외에 최대 네 명의 연인을 가질 수 있습니다.</t>
+  </si>
+  <si>
     <t>PreceptDef+LoverCount_Female_MaxFour.label</t>
   </si>
   <si>
@@ -1795,6 +1309,9 @@
     <t>Women may have up to four lovers, in addition to spouses.</t>
   </si>
   <si>
+    <t>여성은 배우자 외에 최대 네 명의 연인을 가질 수 있습니다.</t>
+  </si>
+  <si>
     <t>PreceptDef+LoverCount_Male_Unlimited.description</t>
   </si>
   <si>
@@ -1804,6 +1321,9 @@
     <t>Men may have as many lovers as they like.</t>
   </si>
   <si>
+    <t>남성은 원하는 만큼 많은 연인을 가질 수 있습니다.</t>
+  </si>
+  <si>
     <t>PreceptDef+LoverCount_Male_Unlimited.label</t>
   </si>
   <si>
@@ -1813,6 +1333,9 @@
     <t>unlimited</t>
   </si>
   <si>
+    <t>무제한</t>
+  </si>
+  <si>
     <t>PreceptDef+LoverCount_Female_Unlimited.description</t>
   </si>
   <si>
@@ -1822,6 +1345,9 @@
     <t>Women may have as many lovers as they like.</t>
   </si>
   <si>
+    <t>여성은 원하는 만큼 많은 연인을 가질 수 있습니다.</t>
+  </si>
+  <si>
     <t>PreceptDef+LoverCount_Female_Unlimited.label</t>
   </si>
   <si>
@@ -1843,6 +1369,9 @@
     <t>Men may not have any spouses.</t>
   </si>
   <si>
+    <t>남성은 배우자를 가질 수 없습니다.</t>
+  </si>
+  <si>
     <t>PreceptDef+SpouseCount_Female_None.label</t>
   </si>
   <si>
@@ -1858,12 +1387,18 @@
     <t>Women not may have any spouses.</t>
   </si>
   <si>
+    <t>여성은 배우자를 가질 수 없습니다.</t>
+  </si>
+  <si>
     <t>ThoughtDef+LovinAsexualPositive.stages.0.label</t>
   </si>
   <si>
     <t>LovinAsexualPositive.stages.0.label</t>
   </si>
   <si>
+    <t>애정 행위를 가졌습니다.</t>
+  </si>
+  <si>
     <t>ThoughtDef+LovinAsexualPositive.stages.0.description</t>
   </si>
   <si>
@@ -1873,6 +1408,9 @@
     <t>It was alright I guess.</t>
   </si>
   <si>
+    <t>괜찮았던 것 같아요.</t>
+  </si>
+  <si>
     <t>ThoughtDef+LovinAsexualNegative.stages.0.label</t>
   </si>
   <si>
@@ -1888,6 +1426,9 @@
     <t>I did not enjoy it.</t>
   </si>
   <si>
+    <t>즐기지 못했습니다.</t>
+  </si>
+  <si>
     <t>ThoughtDef+PassionateLovinAsexualPositive.stages.0.label</t>
   </si>
   <si>
@@ -1897,6 +1438,9 @@
     <t>got some passionate lovin'</t>
   </si>
   <si>
+    <t>열정적인 애정 행위를 가졌습니다.</t>
+  </si>
+  <si>
     <t>ThoughtDef+PassionateLovinAsexualPositive.stages.0.description</t>
   </si>
   <si>
@@ -1906,6 +1450,9 @@
     <t>It was more intense than usual, which was nice.</t>
   </si>
   <si>
+    <t>평소보다 더 강렬해서 좋았습니다.</t>
+  </si>
+  <si>
     <t>ThoughtDef+PassionateLovinAsexualNegative.stages.0.label</t>
   </si>
   <si>
@@ -1921,6 +1468,9 @@
     <t>It was more intense than usual, which was terrible.</t>
   </si>
   <si>
+    <t>평소보다 더 강렬해서 끔찍했습니다.</t>
+  </si>
+  <si>
     <t>Patches.ThoughtDef+HoneymoonPhase.stages.0.description</t>
   </si>
   <si>
@@ -1933,6 +1483,9 @@
     <t>I've married the love of my life! This is the happiest I've ever been!</t>
   </si>
   <si>
+    <t>내 인생의 사랑과 결혼했어요! 지금이 가장 행복한 순간이에요!</t>
+  </si>
+  <si>
     <t>Keyed+WBR.TryHookupButtonLabel</t>
   </si>
   <si>
@@ -1942,6 +1495,9 @@
     <t>Hook Up</t>
   </si>
   <si>
+    <t>관계</t>
+  </si>
+  <si>
     <t>Keyed+WBR.TryHookupNoOptsMessage</t>
   </si>
   <si>
@@ -1951,6 +1507,9 @@
     <t>Nobody for {0_labelShort} to hook up with.</t>
   </si>
   <si>
+    <t>{0_labelShort}와 관계할 사람이 없습니다.</t>
+  </si>
+  <si>
     <t>Keyed+WBR.HookupFailedUnexpected</t>
   </si>
   <si>
@@ -1960,6 +1519,9 @@
     <t>{0_labelShort} was unable to hook up with {1_labelShort}</t>
   </si>
   <si>
+    <t>{0_labelShort}(은)는 {1_labelShort}와 관계할 수 없습니다.</t>
+  </si>
+  <si>
     <t>Keyed+WBR.CantRomanceInitiateMessageAromantic</t>
   </si>
   <si>
@@ -1972,12 +1534,27 @@
     <t>Keyed+WBR.CantHookupReasonDead</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>{0_labelShort}(은)는 향애적이기 때문에 로맨스를 시도할 수 없습니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>WBR.CantHookupReasonDead</t>
   </si>
   <si>
     <t>dead</t>
   </si>
   <si>
+    <t>죽음</t>
+  </si>
+  <si>
     <t>Keyed+WBR.CantHookupReasonDanger</t>
   </si>
   <si>
@@ -1987,6 +1564,9 @@
     <t>in danger</t>
   </si>
   <si>
+    <t>위험에 처함</t>
+  </si>
+  <si>
     <t>Keyed+WBR.CantHookupReasonNeed</t>
   </si>
   <si>
@@ -1996,6 +1576,9 @@
     <t>basic need</t>
   </si>
   <si>
+    <t>기본 필요</t>
+  </si>
+  <si>
     <t>Keyed+WBR.CantHookupReasonDowned</t>
   </si>
   <si>
@@ -2005,6 +1588,9 @@
     <t>incapacitated</t>
   </si>
   <si>
+    <t>무력화됨</t>
+  </si>
+  <si>
     <t>Keyed+WBR.CantHookupReasonMentalState</t>
   </si>
   <si>
@@ -2014,6 +1600,9 @@
     <t>mental break</t>
   </si>
   <si>
+    <t>정신 이상</t>
+  </si>
+  <si>
     <t>Keyed+WBR.CantHookupReasonDrafted</t>
   </si>
   <si>
@@ -2026,12 +1615,27 @@
     <t>Keyed+WBR.CantHookupReasonInLabor</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>소집됨</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>WBR.CantHookupReasonInLabor</t>
   </si>
   <si>
     <t>in labor</t>
   </si>
   <si>
+    <t>출산 중</t>
+  </si>
+  <si>
     <t>Keyed+WBR.CantHookupReasonBusy</t>
   </si>
   <si>
@@ -2041,6 +1645,9 @@
     <t>busy</t>
   </si>
   <si>
+    <t>바쁨</t>
+  </si>
+  <si>
     <t>Keyed+WBR.CantHookupTargetSlave</t>
   </si>
   <si>
@@ -2050,6 +1657,9 @@
     <t>slave</t>
   </si>
   <si>
+    <t>노예</t>
+  </si>
+  <si>
     <t>Keyed+WBR.CantHookupTargetAsexual</t>
   </si>
   <si>
@@ -2059,6 +1669,9 @@
     <t>asexual</t>
   </si>
   <si>
+    <t>무성애</t>
+  </si>
+  <si>
     <t>Keyed+WBR.CantHookupTargetGender</t>
   </si>
   <si>
@@ -2068,6 +1681,9 @@
     <t>incompatible gender</t>
   </si>
   <si>
+    <t>성별 불일치</t>
+  </si>
+  <si>
     <t>Keyed+WBR.CantHookupTargetInfertile</t>
   </si>
   <si>
@@ -2077,6 +1693,9 @@
     <t>infertile</t>
   </si>
   <si>
+    <t>불임</t>
+  </si>
+  <si>
     <t>Keyed+WBR.CantHookupTargetPregnancy</t>
   </si>
   <si>
@@ -2086,6 +1705,9 @@
     <t>pregnancy not possible</t>
   </si>
   <si>
+    <t>임신 불가능</t>
+  </si>
+  <si>
     <t>Keyed+WBR.CantHookupTargetTrait</t>
   </si>
   <si>
@@ -2095,6 +1717,9 @@
     <t>missing trait</t>
   </si>
   <si>
+    <t>특성 없음</t>
+  </si>
+  <si>
     <t>Keyed+WBR.CantHookupTargetIdeo</t>
   </si>
   <si>
@@ -2113,6 +1738,9 @@
     <t>unreachable</t>
   </si>
   <si>
+    <t>접근 불가</t>
+  </si>
+  <si>
     <t>Keyed+WBR.CantHookupTargetIncest</t>
   </si>
   <si>
@@ -2122,6 +1750,9 @@
     <t>incestuous</t>
   </si>
   <si>
+    <t>근친상간</t>
+  </si>
+  <si>
     <t>Keyed+WBR.CantHookupTargetOpinion</t>
   </si>
   <si>
@@ -2131,6 +1762,9 @@
     <t>low opinion</t>
   </si>
   <si>
+    <t>낮은 호감도</t>
+  </si>
+  <si>
     <t>Keyed+WBR.CantHookupTargetPrisoner</t>
   </si>
   <si>
@@ -2140,6 +1774,9 @@
     <t>prisoner</t>
   </si>
   <si>
+    <t>포로</t>
+  </si>
+  <si>
     <t>Keyed+WBR.CantHookupTargetYoung</t>
   </si>
   <si>
@@ -2149,6 +1786,9 @@
     <t>too young</t>
   </si>
   <si>
+    <t>너무 젊음</t>
+  </si>
+  <si>
     <t>Keyed+WBR.CantHookupTargetZeroChance</t>
   </si>
   <si>
@@ -2158,6 +1798,9 @@
     <t>zero chance</t>
   </si>
   <si>
+    <t>기회 없음</t>
+  </si>
+  <si>
     <t>Keyed+WBR.CantHookupInitiateBusy</t>
   </si>
   <si>
@@ -2167,6 +1810,9 @@
     <t xml:space="preserve">{0_labelShort} is unable to hook up: </t>
   </si>
   <si>
+    <t>{0_labelShort}(은)는 관계를 할 수 없음:</t>
+  </si>
+  <si>
     <t>Keyed+WBR.CantHookupInitiateMessagePrisoner</t>
   </si>
   <si>
@@ -2176,6 +1822,9 @@
     <t>{0_labelShort} cannot be ordered to hook up because {0_pronoun} is a prisoner.</t>
   </si>
   <si>
+    <t>{0_labelShort}(은)는 포로이기 때문에 관계를 명령할 수 없습니다.</t>
+  </si>
+  <si>
     <t>Keyed+WBR.CantHookupInitiateMessageAsexual</t>
   </si>
   <si>
@@ -2185,6 +1834,9 @@
     <t>{0_labelShort} cannot be ordered to hook up because {0_pronoun} is asexual.</t>
   </si>
   <si>
+    <t>{0_labelShort}(은)는 무성애자이기 때문에 관계를 명령할 수 없습니다.</t>
+  </si>
+  <si>
     <t>Keyed+WBR.CantHookupInitiateMessageIdeo</t>
   </si>
   <si>
@@ -2194,6 +1846,9 @@
     <t>{0_labelShort}'s ideoligion does not allow hooking up.</t>
   </si>
   <si>
+    <t>{0_labelShort}의 이데올로기는 관계를 허용하지 않습니다.</t>
+  </si>
+  <si>
     <t>Keyed+WBR.CantHookupInitiateMessageFertility</t>
   </si>
   <si>
@@ -2203,6 +1858,9 @@
     <t>{0_labelShort} cannot be ordered to hook up because {0_pronoun} is infertile.</t>
   </si>
   <si>
+    <t>{0_labelShort}(은)는 불임이기 때문에 관계를 명령할 수 없습니다.</t>
+  </si>
+  <si>
     <t>Keyed+WBR.CantHookupInitiateMessageTrait</t>
   </si>
   <si>
@@ -2212,6 +1870,9 @@
     <t>{0_labelShort} cannot be ordered to hook up because {0_pronoun} does not have the {1} trait.</t>
   </si>
   <si>
+    <t>{0_labelShort}(은)는 {1} 특성이 없기 때문에 관계를 명령할 수 없습니다.</t>
+  </si>
+  <si>
     <t>Keyed+WBR.HookupExistingRelationshipWarning</t>
   </si>
   <si>
@@ -2221,6 +1882,9 @@
     <t>Having {INITIATOR_nameDef} hook up with {TARGET_nameDef} could sow resentment among existing partners, lead to breakups, and cause altercations.</t>
   </si>
   <si>
+    <t>{INITIATOR_nameDef}(이)가 {TARGET_nameDef}와 관계하면 기존 파트너 사이에 원한이 생길 수 있으며, 이로 인해 헤어지거나 다툼이 발생할 수 있습니다.</t>
+  </si>
+  <si>
     <t>Keyed+WBR.HookupWarningMonogamous</t>
   </si>
   <si>
@@ -2233,6 +1897,18 @@
     <t>Keyed+WBR.HookupWarningPolygamous</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>{0_nameDef}(은)는 이미 연애 중입니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>WBR.HookupWarningPolygamous</t>
   </si>
   <si>
@@ -2242,12 +1918,27 @@
     <t>Keyed+WBR.NoHookupBedFound</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>{0_nameDef}(은)는 이미 {1}명의 파트너가 있습니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>WBR.NoHookupBedFound</t>
   </si>
   <si>
     <t>No suitable bed found for {0_labelShort} and {1_labelShort} to hook up in.</t>
   </si>
   <si>
+    <t>{0_labelShort}와 {1_labelShort}(이)가 관계할 적절한 침대를 찾지 못했습니다.</t>
+  </si>
+  <si>
     <t>Keyed+WBR.TryHookupRejectedMessage</t>
   </si>
   <si>
@@ -2260,12 +1951,27 @@
     <t>Keyed+WBR.TryHookupSuccessMessage</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>{1_labelShort}(이)가 {0_labelShort}의 접근을 거절했습니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>WBR.TryHookupSuccessMessage</t>
   </si>
   <si>
     <t>{1_labelShort} agreed to hook up with {0_labelShort}.</t>
   </si>
   <si>
+    <t>{1_labelShort}(이)가 {0_labelShort}와의 관계에 동의했습니다.</t>
+  </si>
+  <si>
     <t>Keyed+WBR.CantHookupInitiateMessageCooldown</t>
   </si>
   <si>
@@ -2275,6 +1981,9 @@
     <t>{0_labelShort} tried hooking up recently and must wait {1} until trying again.</t>
   </si>
   <si>
+    <t>{0_labelShort}(은)는 최근에 관계를 시도했고 다시 시도하려면 {1} 시간이 필요합니다.</t>
+  </si>
+  <si>
     <t>Keyed+WBR.HookupTargetNotFreeReason</t>
   </si>
   <si>
@@ -2284,6 +1993,9 @@
     <t xml:space="preserve">Target not free: </t>
   </si>
   <si>
+    <t>대상은 자유롭지 않음:</t>
+  </si>
+  <si>
     <t>Keyed+WBR.HookupTargetNotFree</t>
   </si>
   <si>
@@ -2293,6 +2005,9 @@
     <t>Target not free but reason wasn't given.</t>
   </si>
   <si>
+    <t>대상은 자유롭지 않지만 이유가 주어지지 않았음.</t>
+  </si>
+  <si>
     <t>Keyed+WBR.CannotHookup</t>
   </si>
   <si>
@@ -2302,6 +2017,9 @@
     <t>Cannot hook up with {0}</t>
   </si>
   <si>
+    <t>{0}와 관계할 수 없음</t>
+  </si>
+  <si>
     <t>Keyed+WBR.CanHookup</t>
   </si>
   <si>
@@ -2311,6 +2029,9 @@
     <t>Hook up with {0}</t>
   </si>
   <si>
+    <t>{0}와 관계하기</t>
+  </si>
+  <si>
     <t>Keyed+WBR.HookupChance</t>
   </si>
   <si>
@@ -2320,6 +2041,9 @@
     <t>Hookup chance</t>
   </si>
   <si>
+    <t>관계 확률</t>
+  </si>
+  <si>
     <t>Keyed+WBR.HookupChanceCant</t>
   </si>
   <si>
@@ -2329,6 +2053,9 @@
     <t>Cannot order hook up with</t>
   </si>
   <si>
+    <t>관계 명령을 내릴 수 없음</t>
+  </si>
+  <si>
     <t>Keyed+WBR.HookupChanceNotPartner</t>
   </si>
   <si>
@@ -2338,6 +2065,9 @@
     <t>No relationship</t>
   </si>
   <si>
+    <t>관계 없음</t>
+  </si>
+  <si>
     <t>Keyed+WBR.HookupChanceSexuality</t>
   </si>
   <si>
@@ -2347,6 +2077,9 @@
     <t>Orientation factor</t>
   </si>
   <si>
+    <t>성향 요인</t>
+  </si>
+  <si>
     <t>Keyed+WBR.HookupChanceAgeFactor</t>
   </si>
   <si>
@@ -2356,6 +2089,9 @@
     <t>Relative age</t>
   </si>
   <si>
+    <t>상대적 나이</t>
+  </si>
+  <si>
     <t>Keyed+WBR.HookupChanceBeautyFactor</t>
   </si>
   <si>
@@ -2365,6 +2101,9 @@
     <t>Beauty</t>
   </si>
   <si>
+    <t>외모</t>
+  </si>
+  <si>
     <t>Keyed+WBR.HookupChanceOpinionFactor</t>
   </si>
   <si>
@@ -2374,6 +2113,9 @@
     <t>Opinion</t>
   </si>
   <si>
+    <t>호감도</t>
+  </si>
+  <si>
     <t>Keyed+WBR.HookupChancePartnerFactor</t>
   </si>
   <si>
@@ -2383,6 +2125,9 @@
     <t>Opinion of partner</t>
   </si>
   <si>
+    <t>파트너에 대한 의견</t>
+  </si>
+  <si>
     <t>Keyed+WBR.HookupChanceCheatingChance</t>
   </si>
   <si>
@@ -2392,6 +2137,9 @@
     <t>Chance of cheating</t>
   </si>
   <si>
+    <t>바람 피울 확률</t>
+  </si>
+  <si>
     <t>Keyed+WBR.PawnsHaveSameGender</t>
   </si>
   <si>
@@ -2404,18 +2152,78 @@
     <t>Keyed+WBR.PawnsAreSterile</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>{PAWN1_nameDef}와 {PAWN2_nameDef}(은)는 같은 성별입니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>WBR.PawnsAreSterile</t>
   </si>
   <si>
     <t>Keyed+WBR.PawnIsSterile</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>{PAWN1_nameDef} and {PAWN2_nameDef} are sterile.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>{PAWN1_nameDef}와 {PAWN2_nameDef}(은)는 불임입니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>WBR.PawnIsSterile</t>
   </si>
   <si>
     <t>Keyed+WBR.PawnsAreInfertile</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>{PAWN_nameDef} is sterile.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>{PAWN_nameDef}(은)는 불임입니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>WBR.PawnsAreInfertile</t>
   </si>
   <si>
@@ -2425,12 +2233,48 @@
     <t>Keyed+WBR.PawnIsInfertile</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>{PAWN1_nameDef}와 {PAWN2_nameDef}(은)는 난임입니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>WBR.PawnIsInfertile</t>
   </si>
   <si>
     <t>Keyed+WBR.PawnsAreTooYoung</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>{PAWN_nameDef} is infertile.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>{PAWN_nameDef}(은)는 난임입니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>WBR.PawnsAreTooYoung</t>
   </si>
   <si>
@@ -2440,6 +2284,18 @@
     <t>Keyed+WBR.PawnIsTooYoung</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>{PAWN1_nameDef}와 {PAWN2_nameDef}(은)는 아이를 낳기에는 너무 젊습니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>WBR.PawnIsTooYoung</t>
   </si>
   <si>
@@ -2449,6 +2305,18 @@
     <t>Keyed+WBR.PawnIsDead</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>{PAWN_nameDef}(은)는 아이를 낳기에는 너무 젊습니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>WBR.PawnIsDead</t>
   </si>
   <si>
@@ -2458,12 +2326,27 @@
     <t>Keyed+WBR.AgelessGeneWarning</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>{PAWN_nameDef}(은)는 사망했습니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>WBR.AgelessGeneWarning</t>
   </si>
   <si>
     <t>*The above values are for humans and may not be accurate for other races.</t>
   </si>
   <si>
+    <t>*위 값은 인간에 대한 것이며 다른 종에 대해 정확하지 않을 수 있습니다.</t>
+  </si>
+  <si>
     <t>Keyed+WBR.MinAgeGeneWarning</t>
   </si>
   <si>
@@ -2473,6 +2356,9 @@
     <t>*This age is for humans and may not be accurate for other races.</t>
   </si>
   <si>
+    <t>*이 연령은 인간에 대한 것이며 다른 종에 대해 정확하지 않을 수 있습니다.</t>
+  </si>
+  <si>
     <t>Keyed+WBR.AceOrentationHeading</t>
   </si>
   <si>
@@ -2482,6 +2368,9 @@
     <t>Asexual Romantic Orientation Chances</t>
   </si>
   <si>
+    <t>무성애자 로맨틱 성향 확률</t>
+  </si>
+  <si>
     <t>Keyed+WBR.AceOrentationHeadingTip</t>
   </si>
   <si>
@@ -2491,6 +2380,9 @@
     <t>Asexual pawns will be assigned a romantic orientation using the settings below.</t>
   </si>
   <si>
+    <t>무성애 캐릭터는 아래 설정을 사용하여 로맨틱 성향이 부여됩니다.</t>
+  </si>
+  <si>
     <t>Keyed+WBR.AceHeteroChance</t>
   </si>
   <si>
@@ -2500,6 +2392,9 @@
     <t>Chance of a Pawn Being Heteroromantic:</t>
   </si>
   <si>
+    <t>이성 로맨틱일 확률:</t>
+  </si>
+  <si>
     <t>Keyed+WBR.AceHeteroChanceTip</t>
   </si>
   <si>
@@ -2509,6 +2404,9 @@
     <t>Romantically interested only in opposite-gender partners</t>
   </si>
   <si>
+    <t>이성에게만 로맨틱하게 관심을 가집니다.</t>
+  </si>
+  <si>
     <t>Keyed+WBR.AceBiChance</t>
   </si>
   <si>
@@ -2518,6 +2416,9 @@
     <t>Chance of a Pawn Being Biromantic:</t>
   </si>
   <si>
+    <t>양성 로맨틱일 확률:</t>
+  </si>
+  <si>
     <t>Keyed+WBR.AceBiChanceTip</t>
   </si>
   <si>
@@ -2527,6 +2428,9 @@
     <t>Romantically interested in partners of either gender</t>
   </si>
   <si>
+    <t>양성에게 로맨틱하게 관심을 가집니다.</t>
+  </si>
+  <si>
     <t>Keyed+WBR.AceHomoChance</t>
   </si>
   <si>
@@ -2536,6 +2440,9 @@
     <t>Chance of a Pawn Being Homoromantic:</t>
   </si>
   <si>
+    <t>동성 로맨틱일 확률:</t>
+  </si>
+  <si>
     <t>Keyed+WBR.AceHomoChanceTip</t>
   </si>
   <si>
@@ -2545,6 +2452,9 @@
     <t>Romantically interested only in same-gender partners</t>
   </si>
   <si>
+    <t>동성에게만 로맨틱하게 관심을 가집니다.</t>
+  </si>
+  <si>
     <t>Keyed+WBR.AceAroChance</t>
   </si>
   <si>
@@ -2554,6 +2464,9 @@
     <t>Chance of a Pawn Being Aromantic:</t>
   </si>
   <si>
+    <t>로맨틱하지 않을 확률:</t>
+  </si>
+  <si>
     <t>Keyed+WBR.AceAroChanceTip</t>
   </si>
   <si>
@@ -2563,6 +2476,9 @@
     <t>Uninterested in all romantic engagements. These pawns will behave similar to vanilla asexual pawns.</t>
   </si>
   <si>
+    <t>모든 로맨틱 관계에 관심이 없습니다. 이 캐릭터는 기본 무성애자 캐릭터와 유사하게 행동합니다.</t>
+  </si>
+  <si>
     <t>Keyed+WBR.MatchAboveButton</t>
   </si>
   <si>
@@ -2572,6 +2488,9 @@
     <t>Match above</t>
   </si>
   <si>
+    <t>위와 일치</t>
+  </si>
+  <si>
     <t>Keyed+WBR.MatchBelowButton</t>
   </si>
   <si>
@@ -2581,6 +2500,9 @@
     <t>Match below</t>
   </si>
   <si>
+    <t>아래와 일치</t>
+  </si>
+  <si>
     <t>Keyed+WBR.AsexualExplanation</t>
   </si>
   <si>
@@ -2593,6 +2515,18 @@
     <t>Keyed+WBR.Repulsion08</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>{0_labelShort}(은)는 무성애자입니다. 이는 {0_pronoun}(이)가 절대 애정 행위를 시작하지 않음을 의미합니다. {0_pronoun}의 성적 혐오도는 {1}입니다. {0_pronoun}의 성적 혐오도가 낮을수록 다른 사람이 애정 행위를 시작할 때 동의할 가능성이 높아집니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>WBR.Repulsion08</t>
   </si>
   <si>
@@ -2602,6 +2536,18 @@
     <t>Keyed+WBR.Repulsion05</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>{1}에서는 {0_pronoun}(이)가 누구의 요청이든 애정 행위에 절대 동의하지 않으며, 다른 무성애자와만 결혼에 동의합니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>WBR.Repulsion05</t>
   </si>
   <si>
@@ -2611,6 +2557,18 @@
     <t>Keyed+WBR.Repulsion04</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>{1}에서는 {0_pronoun}(이)가 기존 파트너와만 애정 행위에 동의하며, 애정 행위에 대해 부정적인 생각을 가집니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>WBR.Repulsion04</t>
   </si>
   <si>
@@ -2620,6 +2578,18 @@
     <t>Keyed+WBR.Repulsion00</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>{1}에서는 {0_pronoun}(이)가 누구와도 애정 행위에 동의할 수 있지만, 이에 대해 약간 부정적인 생각을 가집니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>WBR.Repulsion00</t>
   </si>
   <si>
@@ -2629,6 +2599,18 @@
     <t>Keyed+WBR.Heteroromantic</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>{1}에서는 {0_pronoun}(이)가 누구와도 애정 행위에 동의할 수 있으며, 이에 대해 긍정적인 생각을 가집니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>WBR.Heteroromantic</t>
   </si>
   <si>
@@ -2638,6 +2620,18 @@
     <t>Keyed+WBR.Homoromantic</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>{0_labelShort}(은)는 이성 로맨틱으로, 이는 {0_pronoun}(이)가 이성에게 로맨틱하게 끌린다는 것을 의미합니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>WBR.Homoromantic</t>
   </si>
   <si>
@@ -2647,6 +2641,18 @@
     <t>Keyed+WBR.Biromantic</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>{0_labelShort}(은)는 동성 로맨틱으로, 이는 {0_pronoun}(이)가 동성에게 로맨틱하게 끌린다는 것을 의미합니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>WBR.Biromantic</t>
   </si>
   <si>
@@ -2656,6 +2662,18 @@
     <t>Keyed+WBR.Aromantic</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>{0_labelShort}(은)는 양성 로맨틱으로, 이는 {0_pronoun}(이)가 남성과 여성 모두에게 로맨틱하게 끌린다는 것을 의미합니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>WBR.Aromantic</t>
   </si>
   <si>
@@ -2665,559 +2683,60 @@
     <t>Keyed+WBR.MoreInfo</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>{0_labelShort}(은)는 로맨틱하지 않으며, 이는 {0_pronoun}(이)가 로맨틱 관계에 관심이 없음을 의미합니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>WBR.MoreInfo</t>
   </si>
   <si>
     <t>&lt;i&gt;Click for more info&lt;/i&gt;</t>
   </si>
   <si>
-    <t>- Way Better Romance -</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>성향 확률</t>
-  </si>
-  <si>
-    <t>게임 내 각 캐릭터는 이성애자, 양성애자, 동성애자, 무성애자 중 하나가 됩니다. 아래 슬라이더를 사용하여 각 성향의 상대적 비율을 설정할 수 있습니다. 총합은 항상 100%가 되어야 합니다. (예를 들어, 한 캐릭터가 양성애자일 확률이 60%라면, 이성애자일 확률이 70%가 될 수는 없습니다!)</t>
-  </si>
-  <si>
-    <t>이성애자일 확률:</t>
-  </si>
-  <si>
-    <t>이성에게만 로맨틱하거나 성적으로 관심을 가집니다.</t>
-  </si>
-  <si>
-    <t>양성애자일 확률:</t>
-  </si>
-  <si>
-    <t>양성에게 로맨틱하거나 성적으로 관심을 가집니다.</t>
-  </si>
-  <si>
-    <t>동성애자일 확률:</t>
-  </si>
-  <si>
-    <t>동성에게만 로맨틱하거나 성적으로 관심을 가집니다.</t>
-  </si>
-  <si>
-    <t>무성애자일 확률:</t>
-  </si>
-  <si>
-    <t>성적 관계를 시작하는 데 관심이 없습니다. 무성애 캐릭터는 성적 혐오 정도를 나타내는 등급이 있으며, 이 등급에 따라 성적 관계에 동의할 수 있습니다. 등급이 충분히 낮으면 이러한 관계에 대해 부정적인 감정을 가질 수 있습니다.</t>
-  </si>
-  <si>
-    <t>기타 설정</t>
-  </si>
-  <si>
-    <t>종 간 로맨스 수정자:</t>
-  </si>
-  <si>
-    <t>이 슬라이더는 캐릭터가 다른 종의 캐릭터에게 로맨틱하게 관심을 가질 가능성을 결정합니다. (이 설정은 게임에 외계 종족이 실제로 존재할 때만 의미가 있습니다.) 100%로 설정하면 캐릭터는 자신의 종의 구성원과 동일한 확률로 외계 종의 구성원과 로맨스를 시도할 것입니다. 0%로 설정하면 종 간 로맨스는 절대 발생하지 않습니다.</t>
-  </si>
-  <si>
-    <t>데이트 및 만남 제안 기본 비율:</t>
-  </si>
-  <si>
-    <t>데이트의 상대적 빈도입니다. 이것은 여가 활동이기 때문에 실제 빈도는 다른 여가 활동의 가용성에 따라 달라집니다. 지루한 캐릭터는 더 자주 데이트/만남을 제안합니다. 0%로 설정하면 데이트와 만남이 완전히 비활성화됩니다.</t>
-  </si>
-  <si>
-    <t>연애 시도 최소 호감도:</t>
-  </si>
-  <si>
-    <t>캐릭터가 다른 사람에게 연애 시도를 고려하지 않으려면 이 설정보다 낮은 호감도를 가져야 합니다.</t>
-  </si>
-  <si>
-    <t>바람 피우기 수정자:</t>
-  </si>
-  <si>
-    <t>바람 피우기 고려는 발동자의 이데올로기와 가장 좋아하는 파트너에 대한 의견에 따라 달라지므로 실제 확률은 캐릭터마다 다릅니다. 이 설정은 고려의 맨 마지막 단계에서 확률을 변경합니다. 0%로 설정하면 캐릭터가 절대 바람을 피우지 않지만, 이는 그들의 이데올로기가 해당 상호작용을 바람으로 간주할 때만 중요합니다. 다른 이데올로기를 가진 파트너는 여전히 바람을 피운 것으로 느낄 수 있습니다.</t>
-  </si>
-  <si>
-    <t>Base Rate at Which Pawns Will Propose Hookups:</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>애정 행위 중.</t>
-  </si>
-  <si>
-    <t>데이트 신청 중.</t>
-  </si>
-  <si>
-    <t>데이트 중.</t>
-  </si>
-  <si>
-    <t>함께 시간을 보내자고 요청 중.</t>
-  </si>
-  <si>
-    <t>함께 시간을 보내는 중.</t>
-  </si>
-  <si>
-    <t>남성의 연인들</t>
-  </si>
-  <si>
-    <t>여성의 연인들</t>
-  </si>
-  <si>
-    <t>연인이 한 명 이하임</t>
-  </si>
-  <si>
-    <t>없음</t>
-  </si>
-  <si>
-    <t>남성은 배우자 외에 연인을 가질 수 없습니다.</t>
-  </si>
-  <si>
-    <t>여성은 배우자 외에 연인을 가질 수 없습니다.</t>
-  </si>
-  <si>
-    <t>연인이 두 명 이상임</t>
-  </si>
-  <si>
-    <t>연인이 세 명 이상임</t>
-  </si>
-  <si>
-    <t>연인이 네 명 이상임</t>
-  </si>
-  <si>
-    <t>연인이 다섯 명 이상임</t>
-  </si>
-  <si>
-    <t>한 명만</t>
-  </si>
-  <si>
-    <t>남성은 배우자 외에 한 명의 연인을 가질 수 있습니다.</t>
-  </si>
-  <si>
-    <t>여성은 배우자 외에 한 명의 연인을 가질 수 있습니다.</t>
-  </si>
-  <si>
-    <t>두 명 이하</t>
-  </si>
-  <si>
-    <t>남성은 배우자 외에 최대 두 명의 연인을 가질 수 있습니다.</t>
-  </si>
-  <si>
-    <t>여성은 배우자 외에 최대 두 명의 연인을 가질 수 있습니다.</t>
-  </si>
-  <si>
-    <t>세 명 이하</t>
-  </si>
-  <si>
-    <t>남성은 배우자 외에 최대 세 명의 연인을 가질 수 있습니다.</t>
-  </si>
-  <si>
-    <t>여성은 배우자 외에 최대 세 명의 연인을 가질 수 있습니다.</t>
-  </si>
-  <si>
-    <t>네 명 이하</t>
-  </si>
-  <si>
-    <t>남성은 배우자 외에 최대 네 명의 연인을 가질 수 있습니다.</t>
-  </si>
-  <si>
-    <t>여성은 배우자 외에 최대 네 명의 연인을 가질 수 있습니다.</t>
-  </si>
-  <si>
-    <t>남성은 원하는 만큼 많은 연인을 가질 수 있습니다.</t>
-  </si>
-  <si>
-    <t>무제한</t>
-  </si>
-  <si>
-    <t>여성은 원하는 만큼 많은 연인을 가질 수 있습니다.</t>
-  </si>
-  <si>
-    <t>남성은 배우자를 가질 수 없습니다.</t>
-  </si>
-  <si>
-    <t>여성은 배우자를 가질 수 없습니다.</t>
-  </si>
-  <si>
-    <t>애정 행위를 가졌습니다.</t>
-  </si>
-  <si>
-    <t>괜찮았던 것 같아요.</t>
-  </si>
-  <si>
-    <t>즐기지 못했습니다.</t>
-  </si>
-  <si>
-    <t>열정적인 애정 행위를 가졌습니다.</t>
-  </si>
-  <si>
-    <t>평소보다 더 강렬해서 좋았습니다.</t>
-  </si>
-  <si>
-    <t>평소보다 더 강렬해서 끔찍했습니다.</t>
-  </si>
-  <si>
-    <t>내 인생의 사랑과 결혼했어요! 지금이 가장 행복한 순간이에요!</t>
-  </si>
-  <si>
-    <t>죽음</t>
-  </si>
-  <si>
-    <t>위험에 처함</t>
-  </si>
-  <si>
-    <t>기본 필요</t>
-  </si>
-  <si>
-    <t>무력화됨</t>
-  </si>
-  <si>
-    <t>정신 이상</t>
-  </si>
-  <si>
-    <t>출산 중</t>
-  </si>
-  <si>
-    <t>바쁨</t>
-  </si>
-  <si>
-    <t>노예</t>
-  </si>
-  <si>
-    <t>무성애</t>
-  </si>
-  <si>
-    <t>성별 불일치</t>
-  </si>
-  <si>
-    <t>불임</t>
-  </si>
-  <si>
-    <t>임신 불가능</t>
-  </si>
-  <si>
-    <t>특성 없음</t>
-  </si>
-  <si>
-    <t>접근 불가</t>
-  </si>
-  <si>
-    <t>근친상간</t>
-  </si>
-  <si>
-    <t>낮은 호감도</t>
-  </si>
-  <si>
-    <t>포로</t>
-  </si>
-  <si>
-    <t>너무 젊음</t>
-  </si>
-  <si>
-    <t>기회 없음</t>
-  </si>
-  <si>
-    <t>대상은 자유롭지 않음:</t>
-  </si>
-  <si>
-    <t>대상은 자유롭지 않지만 이유가 주어지지 않았음.</t>
-  </si>
-  <si>
-    <t>관계 없음</t>
-  </si>
-  <si>
-    <t>성향 요인</t>
-  </si>
-  <si>
-    <t>상대적 나이</t>
-  </si>
-  <si>
-    <t>외모</t>
-  </si>
-  <si>
-    <t>호감도</t>
-  </si>
-  <si>
-    <t>파트너에 대한 의견</t>
-  </si>
-  <si>
-    <t>바람 피울 확률</t>
-  </si>
-  <si>
-    <t>*위 값은 인간에 대한 것이며 다른 종에 대해 정확하지 않을 수 있습니다.</t>
-  </si>
-  <si>
-    <t>*이 연령은 인간에 대한 것이며 다른 종에 대해 정확하지 않을 수 있습니다.</t>
-  </si>
-  <si>
-    <t>무성애자 로맨틱 성향 확률</t>
-  </si>
-  <si>
-    <t>무성애 캐릭터는 아래 설정을 사용하여 로맨틱 성향이 부여됩니다.</t>
-  </si>
-  <si>
-    <t>이성 로맨틱일 확률:</t>
-  </si>
-  <si>
-    <t>이성에게만 로맨틱하게 관심을 가집니다.</t>
-  </si>
-  <si>
-    <t>양성 로맨틱일 확률:</t>
-  </si>
-  <si>
-    <t>양성에게 로맨틱하게 관심을 가집니다.</t>
-  </si>
-  <si>
-    <t>동성 로맨틱일 확률:</t>
-  </si>
-  <si>
-    <t>동성에게만 로맨틱하게 관심을 가집니다.</t>
-  </si>
-  <si>
-    <t>로맨틱하지 않을 확률:</t>
-  </si>
-  <si>
-    <t>모든 로맨틱 관계에 관심이 없습니다. 이 캐릭터는 기본 무성애자 캐릭터와 유사하게 행동합니다.</t>
-  </si>
-  <si>
-    <t>위와 일치</t>
-  </si>
-  <si>
-    <t>아래와 일치</t>
-  </si>
-  <si>
     <t>&lt;i&gt;자세한 정보를 보려면 클릭하십시오&lt;/i&gt;</t>
   </si>
   <si>
-    <t>r_logentry-&gt;[INITIATOR_nameDef](이)가 [RECIPIENT_nameDef]에게 접근하려고 시도했습니다.</t>
-  </si>
-  <si>
-    <t>r_logentry-&gt;[INITIATOR_nameDef](이)가 [RECIPIENT_nameDef]에게 데이트 신청을 했습니다.</t>
-  </si>
-  <si>
-    <t>sent-&gt; [RECIPIENT_nameDef](이)가 데이트에 동의했습니다.</t>
-  </si>
-  <si>
-    <t>sent-&gt; [RECIPIENT_nameDef](이)가 데이트에 동의하지 않았습니다.</t>
-  </si>
-  <si>
-    <t>r_logentry-&gt;[INITIATOR_nameDef](이)가 [RECIPIENT_nameDef]에게 함께 시간을 보내자고 했습니다.</t>
-  </si>
-  <si>
-    <t>sent-&gt; [RECIPIENT_nameDef](이)가 함께 시간을 보내는 것에 동의했습니다.</t>
-  </si>
-  <si>
-    <t>sent-&gt; [RECIPIENT_nameDef](이)가 함께 시간을 보내는 것에 동의하지 않았습니다.</t>
-  </si>
-  <si>
-    <t>r_logentry-&gt;[RECIPIENT_nameDef](은)는 [INITIATOR_nameDef]에게 접근당했습니다.</t>
-  </si>
-  <si>
-    <t>r_logentry-&gt;[RECIPIENT_nameDef](은)는 [INITIATOR_nameDef]에게 데이트 신청을 받았습니다.</t>
-  </si>
-  <si>
-    <t>r_logentry-&gt;[RECIPIENT_nameDef](은)는 [INITIATOR_nameDef]에게 함께 시간을 보내자는 요청을 받았습니다.</t>
-  </si>
-  <si>
-    <t>{0_labelShort}(은)는 향애적이기 때문에 로맨스를 시도할 수 없습니다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>소집됨</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>{0_nameDef}(은)는 이미 연애 중입니다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>{0_nameDef}(은)는 이미 {1}명의 파트너가 있습니다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>{1_labelShort}(이)가 {0_labelShort}의 접근을 거절했습니다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>{0_labelShort}(은)는 무성애자입니다. 이는 {0_pronoun}(이)가 절대 애정 행위를 시작하지 않음을 의미합니다. {0_pronoun}의 성적 혐오도는 {1}입니다. {0_pronoun}의 성적 혐오도가 낮을수록 다른 사람이 애정 행위를 시작할 때 동의할 가능성이 높아집니다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>{1}에서는 {0_pronoun}(이)가 누구의 요청이든 애정 행위에 절대 동의하지 않으며, 다른 무성애자와만 결혼에 동의합니다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>{1}에서는 {0_pronoun}(이)가 기존 파트너와만 애정 행위에 동의하며, 애정 행위에 대해 부정적인 생각을 가집니다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>{1}에서는 {0_pronoun}(이)가 누구와도 애정 행위에 동의할 수 있지만, 이에 대해 약간 부정적인 생각을 가집니다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>{1}에서는 {0_pronoun}(이)가 누구와도 애정 행위에 동의할 수 있으며, 이에 대해 긍정적인 생각을 가집니다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>{0_labelShort}(은)는 이성 로맨틱으로, 이는 {0_pronoun}(이)가 이성에게 로맨틱하게 끌린다는 것을 의미합니다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>{0_labelShort}(은)는 동성 로맨틱으로, 이는 {0_pronoun}(이)가 동성에게 로맨틱하게 끌린다는 것을 의미합니다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>{0_labelShort}(은)는 양성 로맨틱으로, 이는 {0_pronoun}(이)가 남성과 여성 모두에게 로맨틱하게 끌린다는 것을 의미합니다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>{0_labelShort}(은)는 로맨틱하지 않으며, 이는 {0_pronoun}(이)가 로맨틱 관계에 관심이 없음을 의미합니다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>{PAWN1_nameDef}와 {PAWN2_nameDef}(은)는 같은 성별입니다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>{PAWN1_nameDef}와 {PAWN2_nameDef}(은)는 불임입니다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>{PAWN_nameDef}(은)는 불임입니다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>{PAWN1_nameDef}와 {PAWN2_nameDef}(은)는 아이를 낳기에는 너무 젊습니다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>{PAWN_nameDef}(은)는 아이를 낳기에는 너무 젊습니다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>{PAWN_nameDef}(은)는 사망했습니다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>{PAWN1_nameDef} and {PAWN2_nameDef} are sterile.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>{PAWN_nameDef} is infertile.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>{PAWN_nameDef} is sterile.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>{PAWN1_nameDef}와 {PAWN2_nameDef}(은)는 난임입니다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>{PAWN_nameDef}(은)는 난임입니다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>{0}(은)는 나와 어울리고 싶지 않았다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>{0}(이)가 어울리고 싶어했는데, 얼마나 어색한지.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>{PAWN_nameDef}(은)는 이성에게 로맨틱하고 성적으로 끌립니다.</t>
-  </si>
-  <si>
-    <t>{PAWN_nameDef}(은)는 성적 관계에는 관심이 없지만 이성에게 로맨틱한 매력을 느낍니다.</t>
-  </si>
-  <si>
-    <t>{PAWN_nameDef}(은)는 성적 관계에는 관심이 없지만, {PAWN_possessive} 성별의 로맨틱한 매력을 느낍니다.</t>
-  </si>
-  <si>
-    <t>{PAWN_nameDef}(은)는 성적 관계에는 관심이 없지만 성별에 관계없이 사람들에게 로맨틱한 매력을 느낍니다.</t>
-  </si>
-  <si>
-    <t>{PAWN_nameDef}(은)는 관계가 아무리 나빠져도 바람 피우지 않습니다.</t>
-  </si>
-  <si>
-    <t>{PAWN_nameDef}(은)는 파트너에게만 사랑을 할 수 없습니다.</t>
-  </si>
-  <si>
-    <t>관계 제안 기본 비율:</t>
-  </si>
-  <si>
-    <t>관계의 상대적 빈도입니다. 이것은 여가 활동이기 때문에 실제 빈도는 다른 여가 활동의 가용성에 따라 달라집니다. 지루한 캐릭터는 더 자주 관계를 제안합니다. 0%로 설정하면 관계가 완전히 비활성화됩니다.</t>
-  </si>
-  <si>
-    <t>관계 시도 최소 호감도:</t>
-  </si>
-  <si>
-    <t>캐릭터가 다른 사람과 관계를 고려하지 않으려면 이 설정보다 낮은 호감도를 가져야 합니다.</t>
-  </si>
-  <si>
-    <t>sent-&gt; [RECIPIENT_nameDef](이)가 관계에 동의했습니다.</t>
-  </si>
-  <si>
-    <t>sent-&gt; [RECIPIENT_nameDef](이)가 관계에 동의하지 않았습니다.</t>
-  </si>
-  <si>
-    <t>관계 시도 중.</t>
-  </si>
-  <si>
-    <t>TargetA와 관계를 시도 중.</t>
-  </si>
-  <si>
-    <t>관계</t>
-  </si>
-  <si>
-    <t>{0_labelShort}와 관계할 사람이 없습니다.</t>
-  </si>
-  <si>
-    <t>{0_labelShort}(은)는 {1_labelShort}와 관계할 수 없습니다.</t>
-  </si>
-  <si>
-    <t>{0_labelShort}(은)는 관계를 할 수 없음:</t>
-  </si>
-  <si>
-    <t>{0_labelShort}(은)는 포로이기 때문에 관계를 명령할 수 없습니다.</t>
-  </si>
-  <si>
-    <t>{0_labelShort}(은)는 무성애자이기 때문에 관계를 명령할 수 없습니다.</t>
-  </si>
-  <si>
-    <t>{0_labelShort}의 이데올로기는 관계를 허용하지 않습니다.</t>
-  </si>
-  <si>
-    <t>{0_labelShort}(은)는 불임이기 때문에 관계를 명령할 수 없습니다.</t>
-  </si>
-  <si>
-    <t>{0_labelShort}(은)는 {1} 특성이 없기 때문에 관계를 명령할 수 없습니다.</t>
-  </si>
-  <si>
-    <t>{INITIATOR_nameDef}(이)가 {TARGET_nameDef}와 관계하면 기존 파트너 사이에 원한이 생길 수 있으며, 이로 인해 헤어지거나 다툼이 발생할 수 있습니다.</t>
-  </si>
-  <si>
-    <t>{0_labelShort}와 {1_labelShort}(이)가 관계할 적절한 침대를 찾지 못했습니다.</t>
-  </si>
-  <si>
-    <t>{1_labelShort}(이)가 {0_labelShort}와의 관계에 동의했습니다.</t>
-  </si>
-  <si>
-    <t>{0_labelShort}(은)는 최근에 관계를 시도했고 다시 시도하려면 {1} 시간이 필요합니다.</t>
-  </si>
-  <si>
-    <t>{0}와 관계할 수 없음</t>
-  </si>
-  <si>
-    <t>{0}와 관계하기</t>
-  </si>
-  <si>
-    <t>관계 확률</t>
-  </si>
-  <si>
-    <t>관계 명령을 내릴 수 없음</t>
+    <t>Cheating consideration is based on the initiator's ideoligion and their opinion of their most liked partner, so the actual chances will vary per pawn. This setting alters the chance at the very end of considerations. Setting to 0% will result in a pawn never deciding to cheat, but that will still only matter if their ideo considers an interaction cheating. Partners with a different ideo may still feel cheated on.</t>
+  </si>
+  <si>
+    <t>Keyed+WBR.MaxOpinionCheating</t>
+  </si>
+  <si>
+    <t>WBR.MaxOpinionCheating</t>
+  </si>
+  <si>
+    <t>Max Opinion For Cheating:</t>
+  </si>
+  <si>
+    <t>Keyed+WBR.MaxOpinionCheatingTip</t>
+  </si>
+  <si>
+    <t>WBR.MaxOpinionCheatingTip</t>
+  </si>
+  <si>
+    <t>A pawn will not cheat if their opinion of any partner is at or above this setting. Note that philanderers do not obey this strictly, but the setting is still part of their calculation.</t>
+  </si>
+  <si>
+    <t>바람 피우기 위한 최대 의견:</t>
+  </si>
+  <si>
+    <t>어떤 연인에 대한 평가가 이 설정 이상일 경우, 폰은 바람을 피지 않습니다. 단, 난봉꾼들은 이 설정을 엄격히 따르지 않지만, 설정 값이 여전히 그들의 계산에 포함됩니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -3228,12 +2747,6 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="맑은 고딕"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
       <family val="2"/>
     </font>
     <font>
@@ -3251,17 +2764,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFA500"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -3279,9 +2787,9 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -3583,22 +3091,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F206"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F207"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="F168" sqref="F168"/>
+    <sheetView tabSelected="1" topLeftCell="A186" workbookViewId="0">
+      <selection activeCell="F207" sqref="F207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="1"/>
+    <col min="1" max="2" width="9.140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="42.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="11.42578125" style="1" customWidth="1"/>
     <col min="5" max="5" width="61.5703125" style="1" customWidth="1"/>
     <col min="6" max="6" width="57.42578125" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="1"/>
+    <col min="7" max="7" width="9.140625" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -3614,7 +3122,7 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -3631,3467 +3139,3501 @@
       <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>68</v>
+      <c r="E2" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>170</v>
+        <v>12</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>171</v>
+        <v>16</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>172</v>
+        <v>21</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>173</v>
+        <v>26</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>174</v>
+        <v>30</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>175</v>
+        <v>35</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>176</v>
+        <v>39</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="C10" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>177</v>
+        <v>43</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>178</v>
+        <v>47</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>48</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>179</v>
+        <v>51</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>52</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>180</v>
+        <v>55</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>181</v>
+        <v>59</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>60</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>182</v>
+        <v>63</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>64</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>183</v>
+        <v>67</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>184</v>
+        <v>71</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>72</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>775</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>185</v>
+        <v>75</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>76</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>186</v>
+        <v>79</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>80</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>776</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>187</v>
+        <v>83</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>84</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>188</v>
+        <v>87</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>88</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>67</v>
+        <v>89</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>189</v>
+        <v>92</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>93</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>72</v>
+        <v>94</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>190</v>
+        <v>96</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>97</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>777</v>
+        <v>98</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>75</v>
+        <v>99</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>191</v>
+        <v>100</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>101</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>77</v>
+        <v>102</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>78</v>
+        <v>103</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>192</v>
+        <v>104</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>105</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>778</v>
+        <v>106</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>80</v>
+        <v>107</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>193</v>
+        <v>108</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>109</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>82</v>
+        <v>110</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>83</v>
+        <v>111</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>194</v>
+        <v>112</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>113</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>779</v>
+        <v>114</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>85</v>
+        <v>115</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>195</v>
+        <v>116</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>117</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>87</v>
+        <v>118</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>88</v>
+        <v>119</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>196</v>
+        <v>120</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>121</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>780</v>
+        <v>122</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>90</v>
+        <v>123</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>197</v>
+        <v>124</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>125</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>92</v>
+        <v>126</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>93</v>
+        <v>127</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>198</v>
+        <v>128</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>129</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>781</v>
+        <v>130</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>95</v>
+        <v>131</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>199</v>
+        <v>132</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>133</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>97</v>
+        <v>134</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>98</v>
+        <v>135</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>200</v>
+        <v>136</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>137</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>782</v>
+        <v>138</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>637</v>
+        <v>141</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>104</v>
+        <v>143</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>201</v>
+        <v>145</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>146</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>638</v>
+        <v>147</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>106</v>
+        <v>148</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>108</v>
+        <v>149</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>150</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>639</v>
+        <v>151</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>109</v>
+        <v>152</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>111</v>
+        <v>153</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>154</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>640</v>
+        <v>155</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>112</v>
+        <v>156</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>114</v>
+        <v>157</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>158</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>641</v>
+        <v>159</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>115</v>
+        <v>160</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>117</v>
+        <v>161</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>162</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>642</v>
+        <v>163</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>118</v>
+        <v>164</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>120</v>
+        <v>165</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>166</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>643</v>
+        <v>167</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>121</v>
+        <v>168</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>123</v>
+        <v>169</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>170</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>644</v>
+        <v>171</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>124</v>
+        <v>172</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>126</v>
+        <v>173</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>174</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>645</v>
+        <v>175</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>127</v>
+        <v>176</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>129</v>
+        <v>177</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>178</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>646</v>
+        <v>179</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>130</v>
+        <v>180</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>132</v>
+        <v>181</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>182</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>647</v>
+        <v>183</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>133</v>
+        <v>184</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>135</v>
+        <v>185</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>186</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>648</v>
+        <v>187</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>136</v>
+        <v>188</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>138</v>
+        <v>189</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>190</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>649</v>
+        <v>191</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>139</v>
+        <v>192</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>141</v>
+        <v>193</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>194</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>650</v>
+        <v>195</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>142</v>
+        <v>196</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>144</v>
+        <v>197</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>198</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>651</v>
+        <v>199</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>145</v>
+        <v>200</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="E49" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E49" s="4" t="s">
         <v>202</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>652</v>
+        <v>203</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>147</v>
+        <v>204</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>657</v>
+        <v>205</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>207</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>783</v>
+        <v>206</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>149</v>
+        <v>208</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>151</v>
+        <v>209</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>210</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>784</v>
+        <v>211</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>152</v>
+        <v>212</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>154</v>
+        <v>213</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>214</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>653</v>
+        <v>215</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>155</v>
+        <v>216</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>157</v>
+        <v>217</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>218</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>654</v>
+        <v>219</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>158</v>
+        <v>220</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>160</v>
+        <v>221</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>222</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>785</v>
+        <v>223</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>161</v>
+        <v>224</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>163</v>
+        <v>225</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>226</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>786</v>
+        <v>227</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>164</v>
+        <v>228</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>166</v>
+        <v>229</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>230</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>655</v>
+        <v>231</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>167</v>
+        <v>232</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="F57" s="4" t="s">
-        <v>656</v>
+        <v>233</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>807</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>203</v>
+        <v>239</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>204</v>
+        <v>240</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>205</v>
+        <v>241</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>740</v>
+        <v>242</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>206</v>
+        <v>243</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>7</v>
+        <v>244</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>207</v>
+        <v>245</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>208</v>
+        <v>246</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>747</v>
+        <v>247</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>209</v>
+        <v>248</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>210</v>
+        <v>244</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>211</v>
+        <v>249</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>212</v>
+        <v>250</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>787</v>
+        <v>251</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>213</v>
+        <v>252</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>210</v>
+        <v>7</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>214</v>
+        <v>253</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>215</v>
+        <v>254</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>788</v>
+        <v>255</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
-        <v>216</v>
+        <v>256</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>217</v>
+        <v>257</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>218</v>
+        <v>258</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>741</v>
+        <v>259</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>219</v>
+        <v>260</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>7</v>
+        <v>244</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>220</v>
+        <v>261</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>221</v>
+        <v>262</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>748</v>
+        <v>263</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
-        <v>222</v>
+        <v>264</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>210</v>
+        <v>244</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>223</v>
+        <v>265</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>224</v>
+        <v>266</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>742</v>
+        <v>267</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
-        <v>225</v>
+        <v>268</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>210</v>
+        <v>7</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>226</v>
+        <v>269</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>227</v>
+        <v>270</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>743</v>
+        <v>271</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>228</v>
+        <v>272</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>229</v>
+        <v>273</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>230</v>
+        <v>274</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>744</v>
+        <v>275</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>231</v>
+        <v>276</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>7</v>
+        <v>244</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>232</v>
+        <v>277</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>233</v>
+        <v>278</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>749</v>
+        <v>279</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>234</v>
+        <v>280</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>210</v>
+        <v>244</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>235</v>
+        <v>281</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>236</v>
+        <v>282</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>745</v>
+        <v>283</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
-        <v>237</v>
+        <v>284</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>210</v>
+        <v>285</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>238</v>
+        <v>286</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>239</v>
+        <v>287</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>746</v>
+        <v>288</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
-        <v>240</v>
+        <v>289</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>241</v>
+        <v>285</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>242</v>
+        <v>290</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>243</v>
+        <v>291</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>789</v>
+        <v>292</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>244</v>
+        <v>293</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>241</v>
+        <v>285</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>245</v>
+        <v>294</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>246</v>
+        <v>295</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>658</v>
+        <v>296</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
-        <v>247</v>
+        <v>297</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>241</v>
+        <v>285</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>248</v>
+        <v>298</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>249</v>
+        <v>299</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>790</v>
+        <v>300</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
-        <v>250</v>
+        <v>301</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>241</v>
+        <v>285</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>251</v>
+        <v>302</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>252</v>
+        <v>303</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>659</v>
+        <v>304</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
-        <v>253</v>
+        <v>305</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>241</v>
+        <v>285</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>254</v>
+        <v>306</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>255</v>
+        <v>303</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>660</v>
+        <v>304</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
-        <v>256</v>
+        <v>307</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>241</v>
+        <v>285</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>257</v>
+        <v>308</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>255</v>
+        <v>309</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>660</v>
+        <v>310</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
-        <v>258</v>
+        <v>311</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>241</v>
+        <v>285</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>259</v>
+        <v>312</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>260</v>
+        <v>313</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>661</v>
+        <v>314</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
-        <v>261</v>
+        <v>315</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>241</v>
+        <v>285</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>262</v>
+        <v>316</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>263</v>
+        <v>313</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>662</v>
+        <v>314</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
-        <v>264</v>
+        <v>317</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>241</v>
+        <v>318</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>265</v>
+        <v>319</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>263</v>
+        <v>320</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>662</v>
+        <v>321</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
-        <v>266</v>
+        <v>322</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>267</v>
+        <v>318</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>268</v>
+        <v>323</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>269</v>
+        <v>324</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>663</v>
+        <v>325</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
-        <v>270</v>
+        <v>326</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>267</v>
+        <v>327</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>271</v>
+        <v>328</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>272</v>
+        <v>329</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>664</v>
+        <v>330</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
-        <v>273</v>
+        <v>331</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>274</v>
+        <v>332</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>275</v>
+        <v>333</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>276</v>
+        <v>334</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>665</v>
+        <v>335</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
-        <v>277</v>
+        <v>336</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>278</v>
+        <v>332</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>279</v>
+        <v>337</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>280</v>
+        <v>338</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>666</v>
+        <v>339</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
-        <v>281</v>
+        <v>340</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>278</v>
+        <v>332</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>282</v>
+        <v>341</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>283</v>
+        <v>334</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>667</v>
+        <v>335</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
-        <v>284</v>
+        <v>342</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>278</v>
+        <v>332</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>285</v>
+        <v>343</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>280</v>
+        <v>344</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>666</v>
+        <v>345</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
-        <v>286</v>
+        <v>346</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>278</v>
+        <v>327</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>287</v>
+        <v>347</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>288</v>
+        <v>348</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>668</v>
+        <v>349</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
-        <v>289</v>
+        <v>350</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>274</v>
+        <v>327</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>290</v>
+        <v>351</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>291</v>
+        <v>352</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>669</v>
+        <v>353</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
-        <v>292</v>
+        <v>354</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>274</v>
+        <v>327</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>293</v>
+        <v>355</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>294</v>
+        <v>356</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>670</v>
+        <v>357</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
-        <v>295</v>
+        <v>358</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>274</v>
+        <v>327</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>296</v>
+        <v>359</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>297</v>
+        <v>360</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>671</v>
+        <v>361</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
-        <v>298</v>
+        <v>362</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>274</v>
+        <v>332</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>299</v>
+        <v>363</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>300</v>
+        <v>364</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>672</v>
+        <v>365</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
-        <v>301</v>
+        <v>366</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>278</v>
+        <v>332</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>302</v>
+        <v>367</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>303</v>
+        <v>368</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>673</v>
+        <v>369</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
-        <v>304</v>
+        <v>370</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>278</v>
+        <v>332</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>305</v>
+        <v>371</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>306</v>
+        <v>364</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>674</v>
+        <v>365</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
-        <v>307</v>
+        <v>372</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>278</v>
+        <v>332</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>308</v>
+        <v>373</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>303</v>
+        <v>374</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>673</v>
+        <v>375</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
-        <v>309</v>
+        <v>376</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>278</v>
+        <v>332</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>310</v>
+        <v>377</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>311</v>
+        <v>378</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>675</v>
+        <v>379</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
-        <v>312</v>
+        <v>380</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>278</v>
+        <v>332</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>313</v>
+        <v>381</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>314</v>
+        <v>382</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>676</v>
+        <v>383</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
-        <v>315</v>
+        <v>384</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>278</v>
+        <v>332</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>316</v>
+        <v>385</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>317</v>
+        <v>378</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>677</v>
+        <v>379</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
-        <v>318</v>
+        <v>386</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>278</v>
+        <v>332</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>319</v>
+        <v>387</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>314</v>
+        <v>388</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>676</v>
+        <v>389</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
-        <v>320</v>
+        <v>390</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>278</v>
+        <v>332</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>321</v>
+        <v>391</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>322</v>
+        <v>392</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>678</v>
+        <v>393</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
-        <v>323</v>
+        <v>394</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>278</v>
+        <v>332</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>324</v>
+        <v>395</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>325</v>
+        <v>396</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>679</v>
+        <v>397</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
-        <v>326</v>
+        <v>398</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>278</v>
+        <v>332</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>327</v>
+        <v>399</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>328</v>
+        <v>392</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>680</v>
+        <v>393</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
-        <v>329</v>
+        <v>400</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>278</v>
+        <v>332</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>330</v>
+        <v>401</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>325</v>
+        <v>402</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>679</v>
+        <v>403</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
-        <v>331</v>
+        <v>404</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>278</v>
+        <v>332</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>332</v>
+        <v>405</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>333</v>
+        <v>406</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>681</v>
+        <v>407</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
-        <v>334</v>
+        <v>408</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>278</v>
+        <v>332</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>335</v>
+        <v>409</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>336</v>
+        <v>410</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>682</v>
+        <v>411</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
-        <v>337</v>
+        <v>412</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>278</v>
+        <v>332</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>338</v>
+        <v>413</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>339</v>
+        <v>406</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>683</v>
+        <v>407</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
-        <v>340</v>
+        <v>414</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>278</v>
+        <v>332</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>341</v>
+        <v>415</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>336</v>
+        <v>416</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>682</v>
+        <v>417</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
-        <v>342</v>
+        <v>418</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>278</v>
+        <v>332</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>343</v>
+        <v>419</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>344</v>
+        <v>420</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>684</v>
+        <v>421</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
-        <v>345</v>
+        <v>422</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>278</v>
+        <v>332</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>346</v>
+        <v>423</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>347</v>
+        <v>424</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>685</v>
+        <v>425</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
-        <v>348</v>
+        <v>426</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>278</v>
+        <v>332</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>349</v>
+        <v>427</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>350</v>
+        <v>428</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>686</v>
+        <v>429</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
-        <v>351</v>
+        <v>430</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>278</v>
+        <v>332</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>352</v>
+        <v>431</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>353</v>
+        <v>424</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>687</v>
+        <v>425</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
-        <v>354</v>
+        <v>432</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>278</v>
+        <v>332</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>355</v>
+        <v>433</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>350</v>
+        <v>334</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>686</v>
+        <v>335</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
-        <v>356</v>
+        <v>434</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>278</v>
+        <v>332</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>357</v>
+        <v>435</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>280</v>
+        <v>436</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>666</v>
+        <v>437</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
-        <v>358</v>
+        <v>438</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>278</v>
+        <v>332</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>359</v>
+        <v>439</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>360</v>
+        <v>334</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>688</v>
+        <v>335</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
-        <v>361</v>
+        <v>440</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>278</v>
+        <v>332</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>362</v>
+        <v>441</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>280</v>
+        <v>442</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>666</v>
+        <v>443</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
-        <v>363</v>
+        <v>444</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>278</v>
+        <v>34</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>364</v>
+        <v>445</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>365</v>
+        <v>84</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>689</v>
+        <v>446</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
-        <v>366</v>
+        <v>447</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>367</v>
+        <v>448</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>187</v>
+        <v>449</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>690</v>
+        <v>450</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
-        <v>368</v>
+        <v>451</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>369</v>
+        <v>452</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>370</v>
+        <v>84</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>691</v>
+        <v>446</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
-        <v>371</v>
+        <v>453</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>372</v>
+        <v>454</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>187</v>
+        <v>455</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>690</v>
+        <v>456</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
-        <v>373</v>
+        <v>457</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>374</v>
+        <v>458</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>375</v>
+        <v>459</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>692</v>
+        <v>460</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
-        <v>376</v>
+        <v>461</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>377</v>
+        <v>462</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>378</v>
+        <v>463</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>693</v>
+        <v>464</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
-        <v>379</v>
+        <v>465</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>380</v>
+        <v>466</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>381</v>
+        <v>459</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>694</v>
+        <v>460</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
-        <v>382</v>
+        <v>467</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>383</v>
+        <v>468</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>378</v>
+        <v>469</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>693</v>
+        <v>470</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
-        <v>384</v>
+        <v>471</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>28</v>
+        <v>472</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>385</v>
+        <v>473</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>386</v>
+        <v>474</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>695</v>
+        <v>475</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
-        <v>387</v>
+        <v>476</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>388</v>
+        <v>140</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>389</v>
+        <v>477</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>390</v>
+        <v>478</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>696</v>
+        <v>479</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
-        <v>391</v>
+        <v>480</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>392</v>
+        <v>481</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>393</v>
+        <v>482</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>791</v>
+        <v>483</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
-        <v>394</v>
+        <v>484</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>395</v>
+        <v>485</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>396</v>
+        <v>486</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>792</v>
+        <v>487</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
-        <v>397</v>
+        <v>488</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>398</v>
+        <v>489</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>399</v>
+        <v>490</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>793</v>
+        <v>492</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
-        <v>400</v>
+        <v>491</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>401</v>
+        <v>493</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>402</v>
+        <v>494</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>750</v>
+        <v>495</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
-        <v>403</v>
+        <v>496</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>404</v>
+        <v>497</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>405</v>
+        <v>498</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>697</v>
+        <v>499</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
-        <v>406</v>
+        <v>500</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>407</v>
+        <v>501</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>408</v>
+        <v>502</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>698</v>
+        <v>503</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
-        <v>409</v>
+        <v>504</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>410</v>
+        <v>505</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>411</v>
+        <v>506</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>699</v>
+        <v>507</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
-        <v>412</v>
+        <v>508</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>413</v>
+        <v>509</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>414</v>
+        <v>510</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>700</v>
+        <v>511</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
-        <v>415</v>
+        <v>512</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>416</v>
+        <v>513</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>417</v>
+        <v>514</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>701</v>
+        <v>516</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
-        <v>418</v>
+        <v>515</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>419</v>
+        <v>517</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>420</v>
+        <v>518</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>751</v>
+        <v>519</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
-        <v>421</v>
+        <v>520</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>422</v>
+        <v>521</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>423</v>
+        <v>522</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>702</v>
+        <v>523</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
-        <v>424</v>
+        <v>524</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>425</v>
+        <v>525</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>426</v>
+        <v>526</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>703</v>
+        <v>527</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
-        <v>427</v>
+        <v>528</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>428</v>
+        <v>529</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>429</v>
+        <v>530</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>704</v>
+        <v>531</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
-        <v>430</v>
+        <v>532</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>431</v>
+        <v>533</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>432</v>
+        <v>534</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>705</v>
+        <v>535</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
-        <v>433</v>
+        <v>536</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>434</v>
+        <v>537</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>435</v>
+        <v>538</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>706</v>
+        <v>539</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
-        <v>436</v>
+        <v>540</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>437</v>
+        <v>541</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>438</v>
+        <v>542</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>707</v>
+        <v>543</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
-        <v>439</v>
+        <v>544</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>440</v>
+        <v>545</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>441</v>
+        <v>546</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>708</v>
+        <v>547</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
-        <v>442</v>
+        <v>548</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>443</v>
+        <v>549</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>444</v>
+        <v>550</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>709</v>
+        <v>550</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
-        <v>445</v>
+        <v>551</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>446</v>
+        <v>552</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>447</v>
+        <v>553</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>447</v>
+        <v>554</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
-        <v>448</v>
+        <v>555</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>449</v>
+        <v>556</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>450</v>
+        <v>557</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>710</v>
+        <v>558</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
-        <v>451</v>
+        <v>559</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>452</v>
+        <v>560</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>453</v>
+        <v>561</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>711</v>
+        <v>562</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
-        <v>454</v>
+        <v>563</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>455</v>
+        <v>564</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>456</v>
+        <v>565</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>712</v>
+        <v>566</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
-        <v>457</v>
+        <v>567</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>458</v>
+        <v>568</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>459</v>
+        <v>569</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>713</v>
+        <v>570</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
-        <v>460</v>
+        <v>571</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>461</v>
+        <v>572</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>462</v>
+        <v>573</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>714</v>
+        <v>574</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
-        <v>463</v>
+        <v>575</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>464</v>
+        <v>576</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>465</v>
+        <v>577</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>715</v>
+        <v>578</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
-        <v>466</v>
+        <v>579</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>467</v>
+        <v>580</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>468</v>
+        <v>581</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>794</v>
+        <v>582</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
-        <v>469</v>
+        <v>583</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>470</v>
+        <v>584</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>471</v>
+        <v>585</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>795</v>
+        <v>586</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
-        <v>472</v>
+        <v>587</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>473</v>
+        <v>588</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>474</v>
+        <v>589</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>796</v>
+        <v>590</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
-        <v>475</v>
+        <v>591</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>476</v>
+        <v>592</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>477</v>
+        <v>593</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>797</v>
+        <v>594</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
-        <v>478</v>
+        <v>595</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>479</v>
+        <v>596</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>480</v>
+        <v>597</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>798</v>
+        <v>598</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
-        <v>481</v>
+        <v>599</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>482</v>
+        <v>600</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>483</v>
+        <v>601</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>799</v>
+        <v>602</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
-        <v>484</v>
+        <v>603</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>485</v>
+        <v>604</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>486</v>
+        <v>605</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>800</v>
+        <v>607</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
-        <v>487</v>
+        <v>606</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>488</v>
+        <v>608</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>489</v>
+        <v>609</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>752</v>
+        <v>611</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
-        <v>490</v>
+        <v>610</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>491</v>
+        <v>612</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>492</v>
+        <v>613</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>753</v>
+        <v>614</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
-        <v>493</v>
+        <v>615</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>494</v>
+        <v>616</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>495</v>
+        <v>617</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>801</v>
+        <v>619</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
-        <v>496</v>
+        <v>618</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>497</v>
+        <v>620</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>498</v>
+        <v>621</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>754</v>
+        <v>622</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
-        <v>499</v>
+        <v>623</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>500</v>
+        <v>624</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>501</v>
+        <v>625</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>802</v>
+        <v>626</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
-        <v>502</v>
+        <v>627</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>503</v>
+        <v>628</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>504</v>
+        <v>629</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>803</v>
+        <v>630</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
-        <v>505</v>
+        <v>631</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>506</v>
+        <v>632</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>507</v>
+        <v>633</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>716</v>
+        <v>634</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
-        <v>508</v>
+        <v>635</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>509</v>
+        <v>636</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>510</v>
+        <v>637</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>717</v>
+        <v>638</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
-        <v>511</v>
+        <v>639</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>512</v>
+        <v>640</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>513</v>
+        <v>641</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>804</v>
+        <v>642</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
-        <v>514</v>
+        <v>643</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>515</v>
+        <v>644</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>516</v>
+        <v>645</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>805</v>
+        <v>646</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
-        <v>517</v>
+        <v>647</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>518</v>
+        <v>648</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>519</v>
+        <v>649</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>806</v>
+        <v>650</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
-        <v>520</v>
+        <v>651</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>521</v>
+        <v>652</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>522</v>
+        <v>653</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>807</v>
+        <v>654</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
-        <v>523</v>
+        <v>655</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>524</v>
+        <v>656</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>525</v>
+        <v>657</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>718</v>
+        <v>658</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
-        <v>526</v>
+        <v>659</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>527</v>
+        <v>660</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>528</v>
+        <v>661</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>719</v>
+        <v>662</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
-        <v>529</v>
+        <v>663</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>530</v>
+        <v>664</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>531</v>
+        <v>665</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>720</v>
+        <v>666</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
-        <v>532</v>
+        <v>667</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>533</v>
+        <v>668</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>534</v>
+        <v>669</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>721</v>
+        <v>670</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
-        <v>535</v>
+        <v>671</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>536</v>
+        <v>672</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>537</v>
+        <v>673</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>722</v>
+        <v>674</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
-        <v>538</v>
+        <v>675</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>539</v>
+        <v>676</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>540</v>
+        <v>677</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>723</v>
+        <v>678</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
-        <v>541</v>
+        <v>679</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>542</v>
+        <v>680</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>543</v>
+        <v>681</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>724</v>
+        <v>683</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175" s="1" t="s">
-        <v>544</v>
+        <v>682</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>545</v>
+        <v>684</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>546</v>
+        <v>686</v>
       </c>
       <c r="F175" s="1" t="s">
-        <v>764</v>
+        <v>687</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176" s="1" t="s">
-        <v>547</v>
+        <v>685</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>548</v>
+        <v>688</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>770</v>
+        <v>690</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>765</v>
+        <v>691</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177" s="1" t="s">
-        <v>549</v>
+        <v>689</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>550</v>
+        <v>692</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>772</v>
+        <v>693</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>766</v>
+        <v>695</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178" s="1" t="s">
-        <v>551</v>
+        <v>694</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>552</v>
+        <v>696</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>553</v>
+        <v>698</v>
       </c>
       <c r="F178" s="1" t="s">
-        <v>773</v>
+        <v>699</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
-        <v>554</v>
+        <v>697</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>555</v>
+        <v>700</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>771</v>
+        <v>701</v>
       </c>
       <c r="F179" s="1" t="s">
-        <v>774</v>
+        <v>703</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180" s="1" t="s">
-        <v>556</v>
+        <v>702</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>557</v>
+        <v>704</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>558</v>
+        <v>705</v>
       </c>
       <c r="F180" s="1" t="s">
-        <v>767</v>
+        <v>707</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181" s="1" t="s">
-        <v>559</v>
+        <v>706</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>560</v>
+        <v>708</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>561</v>
+        <v>709</v>
       </c>
       <c r="F181" s="1" t="s">
-        <v>768</v>
+        <v>711</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182" s="1" t="s">
-        <v>562</v>
+        <v>710</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>563</v>
+        <v>712</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>564</v>
+        <v>713</v>
       </c>
       <c r="F182" s="1" t="s">
-        <v>769</v>
+        <v>714</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183" s="1" t="s">
-        <v>565</v>
+        <v>715</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>566</v>
+        <v>716</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>567</v>
+        <v>717</v>
       </c>
       <c r="F183" s="1" t="s">
-        <v>725</v>
+        <v>718</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184" s="1" t="s">
-        <v>568</v>
+        <v>719</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>569</v>
+        <v>720</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>570</v>
+        <v>721</v>
       </c>
       <c r="F184" s="1" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185" s="1" t="s">
-        <v>571</v>
+        <v>723</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>572</v>
+        <v>724</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>573</v>
+        <v>725</v>
       </c>
       <c r="F185" s="1" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186" s="1" t="s">
-        <v>574</v>
+        <v>727</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>575</v>
+        <v>728</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>576</v>
+        <v>729</v>
       </c>
       <c r="F186" s="1" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" s="1" t="s">
-        <v>577</v>
+        <v>731</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>578</v>
+        <v>732</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>579</v>
+        <v>733</v>
       </c>
       <c r="F187" s="1" t="s">
-        <v>729</v>
+        <v>734</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188" s="1" t="s">
-        <v>580</v>
+        <v>735</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>581</v>
+        <v>736</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>582</v>
+        <v>737</v>
       </c>
       <c r="F188" s="1" t="s">
-        <v>730</v>
+        <v>738</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189" s="1" t="s">
-        <v>583</v>
+        <v>739</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>584</v>
+        <v>740</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>585</v>
+        <v>741</v>
       </c>
       <c r="F189" s="1" t="s">
-        <v>731</v>
+        <v>742</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190" s="1" t="s">
-        <v>586</v>
+        <v>743</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>587</v>
+        <v>744</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>588</v>
+        <v>745</v>
       </c>
       <c r="F190" s="1" t="s">
-        <v>732</v>
+        <v>746</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191" s="1" t="s">
-        <v>589</v>
+        <v>747</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>590</v>
+        <v>748</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>591</v>
+        <v>749</v>
       </c>
       <c r="F191" s="1" t="s">
-        <v>733</v>
+        <v>750</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192" s="1" t="s">
-        <v>592</v>
+        <v>751</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>593</v>
+        <v>752</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>594</v>
+        <v>753</v>
       </c>
       <c r="F192" s="1" t="s">
-        <v>734</v>
+        <v>754</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193" s="1" t="s">
-        <v>595</v>
+        <v>755</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>596</v>
+        <v>756</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>597</v>
+        <v>757</v>
       </c>
       <c r="F193" s="1" t="s">
-        <v>735</v>
+        <v>758</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A194" s="1" t="s">
-        <v>598</v>
+        <v>759</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>599</v>
+        <v>760</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>600</v>
+        <v>761</v>
       </c>
       <c r="F194" s="1" t="s">
-        <v>736</v>
+        <v>762</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A195" s="1" t="s">
-        <v>601</v>
+        <v>763</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>602</v>
+        <v>764</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>603</v>
+        <v>765</v>
       </c>
       <c r="F195" s="1" t="s">
-        <v>737</v>
+        <v>766</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196" s="1" t="s">
-        <v>604</v>
+        <v>767</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>605</v>
+        <v>768</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>606</v>
+        <v>769</v>
       </c>
       <c r="F196" s="1" t="s">
-        <v>738</v>
+        <v>771</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197" s="1" t="s">
-        <v>607</v>
+        <v>770</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>608</v>
+        <v>772</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>609</v>
+        <v>773</v>
       </c>
       <c r="F197" s="1" t="s">
-        <v>755</v>
+        <v>775</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198" s="1" t="s">
-        <v>610</v>
+        <v>774</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>611</v>
+        <v>776</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>612</v>
+        <v>777</v>
       </c>
       <c r="F198" s="1" t="s">
-        <v>756</v>
+        <v>779</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199" s="1" t="s">
-        <v>613</v>
+        <v>778</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>614</v>
+        <v>780</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>615</v>
+        <v>781</v>
       </c>
       <c r="F199" s="1" t="s">
-        <v>757</v>
+        <v>783</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200" s="1" t="s">
-        <v>616</v>
+        <v>782</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>617</v>
+        <v>784</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>618</v>
+        <v>785</v>
       </c>
       <c r="F200" s="1" t="s">
-        <v>758</v>
+        <v>787</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A201" s="1" t="s">
-        <v>619</v>
+        <v>786</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>620</v>
+        <v>788</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>621</v>
+        <v>789</v>
       </c>
       <c r="F201" s="1" t="s">
-        <v>759</v>
+        <v>791</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A202" s="1" t="s">
-        <v>622</v>
+        <v>790</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>623</v>
+        <v>792</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>624</v>
+        <v>793</v>
       </c>
       <c r="F202" s="1" t="s">
-        <v>760</v>
+        <v>795</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A203" s="1" t="s">
-        <v>625</v>
+        <v>794</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>626</v>
+        <v>796</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>627</v>
+        <v>797</v>
       </c>
       <c r="F203" s="1" t="s">
-        <v>761</v>
+        <v>799</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A204" s="1" t="s">
-        <v>628</v>
+        <v>798</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>629</v>
+        <v>800</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>630</v>
+        <v>801</v>
       </c>
       <c r="F204" s="1" t="s">
-        <v>762</v>
+        <v>803</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A205" s="1" t="s">
-        <v>631</v>
+        <v>802</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>632</v>
+        <v>804</v>
       </c>
       <c r="E205" s="1" t="s">
-        <v>633</v>
+        <v>805</v>
       </c>
       <c r="F205" s="1" t="s">
-        <v>763</v>
+        <v>806</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A206" s="1" t="s">
-        <v>634</v>
+        <v>808</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>635</v>
+        <v>809</v>
       </c>
       <c r="E206" s="1" t="s">
-        <v>636</v>
+        <v>810</v>
       </c>
       <c r="F206" s="1" t="s">
-        <v>739</v>
+        <v>814</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A207" s="1" t="s">
+        <v>811</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C207" s="1" t="s">
+        <v>812</v>
+      </c>
+      <c r="E207" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="F207" s="1" t="s">
+        <v>815</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>